--- a/wrangle/data/interventions/CIHI_closures_openings.xlsx
+++ b/wrangle/data/interventions/CIHI_closures_openings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/Dec-Update/wrangle/data/interventions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/CovidTimeline/wrangle/data/interventions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7274847-50AA-2C4B-94BF-46DBD14AC2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470DDCE-90EB-D24F-8495-B6D81896FB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B4121951-06CD-2247-ACCE-15AA6F239984}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orig!$A$1:$L$539</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top30'!$A$1:$M$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top30'!$A$1:$L$277</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7994" uniqueCount="1854">
   <si>
     <t>Entry ID</t>
   </si>
@@ -33026,9 +33026,6 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>https://news.ontario.ca/en/release/59776/ontario-taking-further-action-to-limit-spread-of-covid-19</t>
   </si>
   <si>
@@ -33133,36 +33130,6 @@
     <t>https://www.ontario.ca/page/covid-19-provincewide-shutdown</t>
   </si>
   <si>
-    <t>Restaurants &amp; eating places</t>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; Nightlife; Personal care</t>
-  </si>
-  <si>
-    <t>Nightlife</t>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; Nightlife; Fitness</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Personal care</t>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; Fitness</t>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; Personal care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fitness; </t>
-  </si>
-  <si>
-    <t>Fitness; Nightlife</t>
-  </si>
-  <si>
     <t>Restrictions</t>
   </si>
   <si>
@@ -33271,21 +33238,6 @@
       </rPr>
       <t>Oct 28, 2020.</t>
     </r>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; Nightlife; Fitness; Personal care</t>
-  </si>
-  <si>
-    <t>Nightlife; General merchandising stores</t>
-  </si>
-  <si>
-    <t>Clothing stores; General merchandise stores; Home good stores</t>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; Nightlife; Personal care; Fitness; Clothing stores; General merchandise stores; Home goods store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home </t>
   </si>
   <si>
     <t>Central Zone</t>
@@ -33329,9 +33281,6 @@
       <t xml:space="preserve"> retail businesses are required to establish capacity limits based on 5 square metres of unencumbered space per person
 Post occupancy limits.The service and sale of alcohol is prohibited after 8 pm. This order applies to any establishment that sells or serves alcohol including, bars, restaurants, pubs, liquor stores or grocery stores.</t>
     </r>
-  </si>
-  <si>
-    <t>Restaurants &amp; eating places; General merchandise stores; Nightlife</t>
   </si>
   <si>
     <t>BC208</t>
@@ -33497,9 +33446,6 @@
     <t>Who: Manitoba Education
 What: Released Restoring Safe Schools: August 24 - School Settings Practice Guidance and Protocols with updated guidance from August 13 report
 Effective until:</t>
-  </si>
-  <si>
-    <t>Activities; Nightlife</t>
   </si>
   <si>
     <t>Closure</t>
@@ -33924,6 +33870,48 @@
   </si>
   <si>
     <t>Closures - education</t>
+  </si>
+  <si>
+    <t>Limits to operations such as nightclubs restricted to operate as restaurants, establishments obligated to reduced hours of operation, or partial closures.</t>
+  </si>
+  <si>
+    <t>Open for in-person operation with either no or limited restrictions relating to in-person regulations such as contact tracing, occupancy limits, or mask enforcement.</t>
+  </si>
+  <si>
+    <t>Closures of indoor establishments to the public; for example, restriction of restaurants to take-out only.</t>
+  </si>
+  <si>
+    <t>Financial aid to businesses.</t>
+  </si>
+  <si>
+    <t>Release of previously implemented restriction.</t>
+  </si>
+  <si>
+    <t>Announcement of new regulations that do not impact ability to operate in-person.</t>
+  </si>
+  <si>
+    <t>QC380</t>
+  </si>
+  <si>
+    <t>In December, Legault closed all “non-essential” retail stores and extended the winter break for elementary and high school students, and ordered office workers to work remotely.</t>
+  </si>
+  <si>
+    <t>https://globalnews.ca/news/7558944/quebec-curfew-coronavirus-lockdown-measures/</t>
+  </si>
+  <si>
+    <t>Source type</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/montreal/quebec-lockdown-answers-1.5863756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All grocery stores and corner stores will be required to close at 7:30 p.m. to respect the curfew, except those with gas stations which will be allowed to stay open longer. Skiing is allowed and hills will remain open. However, only members of a same household can ski together as a group, and only before the 8 p.m. curfew.  </t>
   </si>
 </sst>
 </file>
@@ -34070,7 +34058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -34098,12 +34086,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34265,7 +34247,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -34772,18 +34754,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -34800,30 +34774,14 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -34836,7 +34794,12 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body_text" xfId="4" xr:uid="{6EABE1A5-4DA1-E64F-8051-01C7E4BEAEBC}"/>
@@ -55128,10 +55091,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB1EB7-EFBB-BE4C-BF33-3C1CB63F305E}">
-  <dimension ref="A1:N273"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278:XFD278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -55146,7 +55110,8 @@
     <col min="10" max="10" width="15.6640625" style="154" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" style="154" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="154"/>
-    <col min="13" max="16384" width="10.83203125" style="185"/>
+    <col min="13" max="13" width="10.83203125" style="190"/>
+    <col min="14" max="16384" width="10.83203125" style="185"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -55186,11 +55151,11 @@
       <c r="L1" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="190" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="209" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="155" t="s">
         <v>1288</v>
       </c>
@@ -55227,8 +55192,11 @@
       <c r="L2" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="155" t="s">
         <v>1288</v>
       </c>
@@ -55265,9 +55233,11 @@
       <c r="L3" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="186"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="155" t="s">
         <v>1288</v>
       </c>
@@ -55275,7 +55245,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="143" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D4" s="163">
         <v>44033</v>
@@ -55304,9 +55274,11 @@
       <c r="L4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="186"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="155" t="s">
         <v>1292</v>
       </c>
@@ -55343,8 +55315,11 @@
       <c r="L5" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="155" t="s">
         <v>1292</v>
       </c>
@@ -55381,8 +55356,11 @@
       <c r="L6" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="155" t="s">
         <v>1292</v>
       </c>
@@ -55390,7 +55368,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="143" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D7" s="163">
         <v>44047</v>
@@ -55419,8 +55397,11 @@
       <c r="L7" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="155" t="s">
         <v>1296</v>
       </c>
@@ -55457,8 +55438,11 @@
       <c r="L8" s="143" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="155" t="s">
         <v>1296</v>
       </c>
@@ -55495,8 +55479,11 @@
       <c r="L9" s="143" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="155" t="s">
         <v>1296</v>
       </c>
@@ -55504,7 +55491,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D10" s="163">
         <v>44050</v>
@@ -55533,8 +55520,11 @@
       <c r="L10" s="143" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="188" t="s">
         <v>1555</v>
       </c>
@@ -55569,11 +55559,11 @@
       <c r="L11" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="191" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="188" t="s">
         <v>1555</v>
       </c>
@@ -55591,7 +55581,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="129" t="s">
-        <v>1857</v>
+        <v>1839</v>
       </c>
       <c r="H12" s="129" t="s">
         <v>1613</v>
@@ -55608,8 +55598,11 @@
       <c r="L12" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="188" t="s">
         <v>1555</v>
       </c>
@@ -55644,11 +55637,11 @@
       <c r="L13" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="204" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="188" t="s">
         <v>1555</v>
       </c>
@@ -55666,7 +55659,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="129" t="s">
-        <v>1857</v>
+        <v>1839</v>
       </c>
       <c r="H14" s="129" t="s">
         <v>1613</v>
@@ -55683,10 +55676,13 @@
       <c r="L14" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="188" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="B15" s="129" t="s">
         <v>12</v>
@@ -55702,16 +55698,16 @@
         <v>13</v>
       </c>
       <c r="G15" s="129" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H15" s="188" t="s">
-        <v>1835</v>
+        <v>1818</v>
       </c>
       <c r="I15" s="129" t="s">
         <v>1554</v>
       </c>
       <c r="J15" s="129" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="K15" s="129" t="s">
         <v>18</v>
@@ -55719,13 +55715,13 @@
       <c r="L15" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="185" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="188" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="B16" s="129" t="s">
         <v>12</v>
@@ -55741,16 +55737,16 @@
         <v>13</v>
       </c>
       <c r="G16" s="129" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H16" s="188" t="s">
-        <v>1835</v>
+        <v>1818</v>
       </c>
       <c r="I16" s="129" t="s">
         <v>1554</v>
       </c>
       <c r="J16" s="129" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="K16" s="129" t="s">
         <v>18</v>
@@ -55758,19 +55754,19 @@
       <c r="L16" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="185" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="M16" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="188" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="B17" s="129" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="129" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D17" s="129"/>
       <c r="E17" s="130">
@@ -55780,16 +55776,16 @@
         <v>13</v>
       </c>
       <c r="G17" s="129" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H17" s="188" t="s">
-        <v>1835</v>
+        <v>1818</v>
       </c>
       <c r="I17" s="129" t="s">
         <v>1554</v>
       </c>
       <c r="J17" s="129" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="K17" s="129" t="s">
         <v>18</v>
@@ -55797,11 +55793,11 @@
       <c r="L17" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="185" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="66">
+      <c r="M17" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="66" hidden="1">
       <c r="A18" s="155" t="s">
         <v>1642</v>
       </c>
@@ -55823,7 +55819,7 @@
       <c r="G18" s="153" t="s">
         <v>1594</v>
       </c>
-      <c r="H18" s="193" t="s">
+      <c r="H18" s="191" t="s">
         <v>1643</v>
       </c>
       <c r="I18" s="158" t="s">
@@ -55838,10 +55834,11 @@
       <c r="L18" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="213"/>
-      <c r="N18" s="192"/>
-    </row>
-    <row r="19" spans="1:14" ht="66">
+      <c r="M18" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="66" hidden="1">
       <c r="A19" s="155" t="s">
         <v>1642</v>
       </c>
@@ -55863,7 +55860,7 @@
       <c r="G19" s="153" t="s">
         <v>1594</v>
       </c>
-      <c r="H19" s="193" t="s">
+      <c r="H19" s="191" t="s">
         <v>1643</v>
       </c>
       <c r="I19" s="158" t="s">
@@ -55878,11 +55875,11 @@
       <c r="L19" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="205" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="66">
+      <c r="M19" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="66" hidden="1">
       <c r="A20" s="155" t="s">
         <v>1642</v>
       </c>
@@ -55890,7 +55887,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D20" s="157">
         <v>44084</v>
@@ -55904,7 +55901,7 @@
       <c r="G20" s="153" t="s">
         <v>1594</v>
       </c>
-      <c r="H20" s="193" t="s">
+      <c r="H20" s="191" t="s">
         <v>1643</v>
       </c>
       <c r="I20" s="158" t="s">
@@ -55919,11 +55916,11 @@
       <c r="L20" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="205" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="61">
+      <c r="M20" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="61" hidden="1">
       <c r="A21" s="155" t="s">
         <v>1648</v>
       </c>
@@ -55945,7 +55942,7 @@
       <c r="G21" s="153" t="s">
         <v>1594</v>
       </c>
-      <c r="H21" s="200" t="s">
+      <c r="H21" s="196" t="s">
         <v>1645</v>
       </c>
       <c r="I21" s="158" t="s">
@@ -55960,8 +55957,11 @@
       <c r="L21" s="153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="61">
+      <c r="M21" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="61" hidden="1">
       <c r="A22" s="155" t="s">
         <v>1648</v>
       </c>
@@ -55983,7 +55983,7 @@
       <c r="G22" s="153" t="s">
         <v>1594</v>
       </c>
-      <c r="H22" s="200" t="s">
+      <c r="H22" s="196" t="s">
         <v>1645</v>
       </c>
       <c r="I22" s="158" t="s">
@@ -55998,8 +55998,11 @@
       <c r="L22" s="153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="61">
+      <c r="M22" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="61" hidden="1">
       <c r="A23" s="155" t="s">
         <v>1648</v>
       </c>
@@ -56007,7 +56010,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="156" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="D23" s="157">
         <v>44085</v>
@@ -56021,7 +56024,7 @@
       <c r="G23" s="153" t="s">
         <v>1594</v>
       </c>
-      <c r="H23" s="200" t="s">
+      <c r="H23" s="196" t="s">
         <v>1645</v>
       </c>
       <c r="I23" s="158" t="s">
@@ -56036,8 +56039,11 @@
       <c r="L23" s="153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="106">
+      <c r="M23" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="106" hidden="1">
       <c r="A24" s="155" t="s">
         <v>1649</v>
       </c>
@@ -56059,7 +56065,7 @@
       <c r="G24" s="153" t="s">
         <v>1592</v>
       </c>
-      <c r="H24" s="200" t="s">
+      <c r="H24" s="196" t="s">
         <v>1650</v>
       </c>
       <c r="I24" s="158" t="s">
@@ -56074,8 +56080,11 @@
       <c r="L24" s="153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="M24" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="155" t="s">
         <v>1649</v>
       </c>
@@ -56112,8 +56121,11 @@
       <c r="L25" s="153" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="M25" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="155" t="s">
         <v>1300</v>
       </c>
@@ -56150,8 +56162,11 @@
       <c r="L26" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="M26" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="155" t="s">
         <v>1300</v>
       </c>
@@ -56188,8 +56203,11 @@
       <c r="L27" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="M27" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="155" t="s">
         <v>1300</v>
       </c>
@@ -56197,7 +56215,7 @@
         <v>143</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D28" s="163">
         <v>44034</v>
@@ -56226,8 +56244,11 @@
       <c r="L28" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="M28" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="155" t="s">
         <v>1300</v>
       </c>
@@ -56264,8 +56285,11 @@
       <c r="L29" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="186" customFormat="1">
+      <c r="M29" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="186" customFormat="1" hidden="1">
       <c r="A30" s="155" t="s">
         <v>1304</v>
       </c>
@@ -56302,9 +56326,11 @@
       <c r="L30" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="185"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="M30" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="155" t="s">
         <v>1304</v>
       </c>
@@ -56341,8 +56367,11 @@
       <c r="L31" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="M31" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="155" t="s">
         <v>1304</v>
       </c>
@@ -56350,7 +56379,7 @@
         <v>143</v>
       </c>
       <c r="C32" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D32" s="163">
         <v>44041</v>
@@ -56379,8 +56408,11 @@
       <c r="L32" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" s="155" t="s">
         <v>1304</v>
       </c>
@@ -56417,8 +56449,11 @@
       <c r="L33" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="114" t="s">
         <v>1560</v>
       </c>
@@ -56455,11 +56490,11 @@
       <c r="L34" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="114" t="s">
         <v>1561</v>
       </c>
@@ -56494,11 +56529,11 @@
       <c r="L35" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="186" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="114" t="s">
         <v>1561</v>
       </c>
@@ -56533,11 +56568,11 @@
       <c r="L36" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="186" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="114" t="s">
         <v>1561</v>
       </c>
@@ -56545,7 +56580,7 @@
         <v>143</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D37" s="129"/>
       <c r="E37" s="127">
@@ -56572,11 +56607,11 @@
       <c r="L37" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="202" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="114" t="s">
         <v>1561</v>
       </c>
@@ -56611,11 +56646,11 @@
       <c r="L38" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="202" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="155" t="s">
         <v>1652</v>
       </c>
@@ -56652,8 +56687,11 @@
       <c r="L39" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="155" t="s">
         <v>1652</v>
       </c>
@@ -56690,8 +56728,11 @@
       <c r="L40" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="155" t="s">
         <v>1652</v>
       </c>
@@ -56699,7 +56740,7 @@
         <v>143</v>
       </c>
       <c r="C41" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D41" s="163">
         <v>44060</v>
@@ -56728,8 +56769,11 @@
       <c r="L41" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="155" t="s">
         <v>1652</v>
       </c>
@@ -56766,8 +56810,11 @@
       <c r="L42" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="M42" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="155" t="s">
         <v>1655</v>
       </c>
@@ -56804,8 +56851,11 @@
       <c r="L43" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="155" t="s">
         <v>1655</v>
       </c>
@@ -56842,8 +56892,11 @@
       <c r="L44" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="155" t="s">
         <v>1655</v>
       </c>
@@ -56851,7 +56904,7 @@
         <v>143</v>
       </c>
       <c r="C45" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D45" s="163">
         <v>44069</v>
@@ -56880,8 +56933,11 @@
       <c r="L45" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="155" t="s">
         <v>1655</v>
       </c>
@@ -56918,8 +56974,11 @@
       <c r="L46" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="155" t="s">
         <v>1658</v>
       </c>
@@ -56939,7 +56998,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="164" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H47" s="165" t="s">
         <v>1659</v>
@@ -56956,11 +57015,11 @@
       <c r="L47" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="M47" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="155" t="s">
         <v>1658</v>
       </c>
@@ -56980,7 +57039,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="164" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H48" s="165" t="s">
         <v>1659</v>
@@ -56997,11 +57056,11 @@
       <c r="L48" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="M48" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="155" t="s">
         <v>1658</v>
       </c>
@@ -57009,7 +57068,7 @@
         <v>143</v>
       </c>
       <c r="C49" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D49" s="163">
         <v>44082</v>
@@ -57021,7 +57080,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="164" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H49" s="165" t="s">
         <v>1659</v>
@@ -57038,11 +57097,11 @@
       <c r="L49" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="M49" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="155" t="s">
         <v>1658</v>
       </c>
@@ -57062,7 +57121,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="164" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H50" s="165" t="s">
         <v>1659</v>
@@ -57079,11 +57138,11 @@
       <c r="L50" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="M50" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="155" t="s">
         <v>1661</v>
       </c>
@@ -57120,11 +57179,11 @@
       <c r="L51" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="M51" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="155" t="s">
         <v>1661</v>
       </c>
@@ -57161,11 +57220,11 @@
       <c r="L52" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="155" t="s">
         <v>1661</v>
       </c>
@@ -57173,7 +57232,7 @@
         <v>143</v>
       </c>
       <c r="C53" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D53" s="163">
         <v>44082</v>
@@ -57202,11 +57261,11 @@
       <c r="L53" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="M53" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="155" t="s">
         <v>1661</v>
       </c>
@@ -57243,11 +57302,11 @@
       <c r="L54" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="192" customFormat="1">
+      <c r="M54" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="190" customFormat="1" hidden="1">
       <c r="A55" s="155" t="s">
         <v>1663</v>
       </c>
@@ -57284,9 +57343,11 @@
       <c r="L55" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M55" s="185"/>
-    </row>
-    <row r="56" spans="1:13" s="192" customFormat="1">
+      <c r="M55" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="190" customFormat="1" hidden="1">
       <c r="A56" s="155" t="s">
         <v>1663</v>
       </c>
@@ -57323,9 +57384,11 @@
       <c r="L56" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M56" s="185"/>
-    </row>
-    <row r="57" spans="1:13" s="187" customFormat="1">
+      <c r="M56" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A57" s="155" t="s">
         <v>1663</v>
       </c>
@@ -57333,7 +57396,7 @@
         <v>143</v>
       </c>
       <c r="C57" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D57" s="163">
         <v>44084</v>
@@ -57362,9 +57425,11 @@
       <c r="L57" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M57" s="185"/>
-    </row>
-    <row r="58" spans="1:13" s="187" customFormat="1">
+      <c r="M57" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A58" s="155" t="s">
         <v>1663</v>
       </c>
@@ -57401,9 +57466,11 @@
       <c r="L58" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M58" s="185"/>
-    </row>
-    <row r="59" spans="1:13" s="187" customFormat="1" ht="75">
+      <c r="M58" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="187" customFormat="1" ht="75" hidden="1">
       <c r="A59" s="155" t="s">
         <v>1667</v>
       </c>
@@ -57420,12 +57487,12 @@
         <v>44094</v>
       </c>
       <c r="F59" s="164" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G59" s="164" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H59" s="201" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H59" s="197" t="s">
         <v>1668</v>
       </c>
       <c r="I59" s="158" t="s">
@@ -57440,9 +57507,11 @@
       <c r="L59" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M59" s="185"/>
-    </row>
-    <row r="60" spans="1:13" s="187" customFormat="1">
+      <c r="M59" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A60" s="155" t="s">
         <v>1667</v>
       </c>
@@ -57459,10 +57528,10 @@
         <v>44094</v>
       </c>
       <c r="F60" s="164" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G60" s="164" t="s">
-        <v>1836</v>
+        <v>1819</v>
       </c>
       <c r="H60" s="165" t="s">
         <v>1668</v>
@@ -57479,9 +57548,11 @@
       <c r="L60" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="185"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="M60" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="155" t="s">
         <v>1667</v>
       </c>
@@ -57489,7 +57560,7 @@
         <v>143</v>
       </c>
       <c r="C61" s="143" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D61" s="163">
         <v>44094</v>
@@ -57498,10 +57569,10 @@
         <v>44094</v>
       </c>
       <c r="F61" s="164" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G61" s="164" t="s">
-        <v>1836</v>
+        <v>1819</v>
       </c>
       <c r="H61" s="165" t="s">
         <v>1668</v>
@@ -57518,8 +57589,11 @@
       <c r="L61" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" s="187" customFormat="1">
+      <c r="M61" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A62" s="155" t="s">
         <v>1667</v>
       </c>
@@ -57536,10 +57610,10 @@
         <v>44094</v>
       </c>
       <c r="F62" s="164" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G62" s="164" t="s">
-        <v>1836</v>
+        <v>1819</v>
       </c>
       <c r="H62" s="165" t="s">
         <v>1668</v>
@@ -57556,11 +57630,13 @@
       <c r="L62" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="185"/>
-    </row>
-    <row r="63" spans="1:13" s="187" customFormat="1">
-      <c r="A63" s="207" t="s">
-        <v>1807</v>
+      <c r="M62" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="187" customFormat="1" hidden="1">
+      <c r="A63" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B63" s="156" t="s">
         <v>143</v>
@@ -57569,17 +57645,17 @@
         <v>1565</v>
       </c>
       <c r="D63" s="156"/>
-      <c r="E63" s="208">
+      <c r="E63" s="200">
         <v>44154</v>
       </c>
       <c r="F63" s="156" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G63" s="164" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H63" s="207" t="s">
-        <v>1805</v>
+        <v>1819</v>
+      </c>
+      <c r="H63" s="199" t="s">
+        <v>1789</v>
       </c>
       <c r="I63" s="156" t="s">
         <v>1559</v>
@@ -57593,13 +57669,13 @@
       <c r="L63" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="M63" s="192" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="187" customFormat="1">
-      <c r="A64" s="207" t="s">
-        <v>1807</v>
+      <c r="M63" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="187" customFormat="1" hidden="1">
+      <c r="A64" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B64" s="156" t="s">
         <v>143</v>
@@ -57608,17 +57684,17 @@
         <v>1565</v>
       </c>
       <c r="D64" s="156"/>
-      <c r="E64" s="208">
+      <c r="E64" s="200">
         <v>44154</v>
       </c>
       <c r="F64" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="164" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H64" s="207" t="s">
-        <v>1804</v>
+        <v>1820</v>
+      </c>
+      <c r="H64" s="199" t="s">
+        <v>1788</v>
       </c>
       <c r="I64" s="156" t="s">
         <v>1559</v>
@@ -57632,13 +57708,13 @@
       <c r="L64" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M64" s="206" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="187" customFormat="1">
-      <c r="A65" s="207" t="s">
-        <v>1807</v>
+      <c r="M64" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="187" customFormat="1" hidden="1">
+      <c r="A65" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B65" s="156" t="s">
         <v>143</v>
@@ -57647,17 +57723,17 @@
         <v>1564</v>
       </c>
       <c r="D65" s="156"/>
-      <c r="E65" s="208">
+      <c r="E65" s="200">
         <v>44154</v>
       </c>
       <c r="F65" s="156" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G65" s="164" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H65" s="207" t="s">
-        <v>1805</v>
+        <v>1819</v>
+      </c>
+      <c r="H65" s="199" t="s">
+        <v>1789</v>
       </c>
       <c r="I65" s="156" t="s">
         <v>1559</v>
@@ -57671,13 +57747,13 @@
       <c r="L65" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="M65" s="192" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="187" customFormat="1">
-      <c r="A66" s="207" t="s">
-        <v>1807</v>
+      <c r="M65" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="187" customFormat="1" hidden="1">
+      <c r="A66" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B66" s="156" t="s">
         <v>143</v>
@@ -57686,17 +57762,17 @@
         <v>1564</v>
       </c>
       <c r="D66" s="156"/>
-      <c r="E66" s="208">
+      <c r="E66" s="200">
         <v>44154</v>
       </c>
       <c r="F66" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="164" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H66" s="207" t="s">
-        <v>1804</v>
+        <v>1820</v>
+      </c>
+      <c r="H66" s="199" t="s">
+        <v>1788</v>
       </c>
       <c r="I66" s="156" t="s">
         <v>1559</v>
@@ -57710,32 +57786,32 @@
       <c r="L66" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M66" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="187" customFormat="1">
-      <c r="A67" s="207" t="s">
-        <v>1807</v>
+      <c r="M66" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="187" customFormat="1" hidden="1">
+      <c r="A67" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B67" s="156" t="s">
         <v>143</v>
       </c>
       <c r="C67" s="156" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D67" s="156"/>
-      <c r="E67" s="208">
+      <c r="E67" s="200">
         <v>44154</v>
       </c>
       <c r="F67" s="156" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G67" s="164" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H67" s="207" t="s">
-        <v>1805</v>
+        <v>1819</v>
+      </c>
+      <c r="H67" s="199" t="s">
+        <v>1789</v>
       </c>
       <c r="I67" s="156" t="s">
         <v>1559</v>
@@ -57749,32 +57825,32 @@
       <c r="L67" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="M67" s="192" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="207" t="s">
-        <v>1807</v>
+      <c r="M67" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1">
+      <c r="A68" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B68" s="156" t="s">
         <v>143</v>
       </c>
       <c r="C68" s="156" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="D68" s="156"/>
-      <c r="E68" s="208">
+      <c r="E68" s="200">
         <v>44154</v>
       </c>
       <c r="F68" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="164" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H68" s="207" t="s">
-        <v>1804</v>
+        <v>1820</v>
+      </c>
+      <c r="H68" s="199" t="s">
+        <v>1788</v>
       </c>
       <c r="I68" s="156" t="s">
         <v>1559</v>
@@ -57788,13 +57864,13 @@
       <c r="L68" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="186" customFormat="1">
-      <c r="A69" s="207" t="s">
-        <v>1807</v>
+      <c r="M68" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="186" customFormat="1" hidden="1">
+      <c r="A69" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B69" s="156" t="s">
         <v>143</v>
@@ -57803,17 +57879,17 @@
         <v>1563</v>
       </c>
       <c r="D69" s="156"/>
-      <c r="E69" s="208">
+      <c r="E69" s="200">
         <v>44154</v>
       </c>
       <c r="F69" s="156" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G69" s="164" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H69" s="207" t="s">
-        <v>1805</v>
+        <v>1819</v>
+      </c>
+      <c r="H69" s="199" t="s">
+        <v>1789</v>
       </c>
       <c r="I69" s="156" t="s">
         <v>1559</v>
@@ -57827,13 +57903,13 @@
       <c r="L69" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="M69" s="192" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="187" customFormat="1">
-      <c r="A70" s="207" t="s">
-        <v>1807</v>
+      <c r="M69" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="187" customFormat="1" hidden="1">
+      <c r="A70" s="199" t="s">
+        <v>1790</v>
       </c>
       <c r="B70" s="156" t="s">
         <v>143</v>
@@ -57842,17 +57918,17 @@
         <v>1563</v>
       </c>
       <c r="D70" s="156"/>
-      <c r="E70" s="208">
+      <c r="E70" s="200">
         <v>44154</v>
       </c>
       <c r="F70" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="164" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H70" s="207" t="s">
-        <v>1804</v>
+        <v>1820</v>
+      </c>
+      <c r="H70" s="199" t="s">
+        <v>1788</v>
       </c>
       <c r="I70" s="156" t="s">
         <v>1559</v>
@@ -57866,11 +57942,11 @@
       <c r="L70" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M70" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="187" customFormat="1">
+      <c r="M70" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A71" s="114" t="s">
         <v>1620</v>
       </c>
@@ -57905,11 +57981,11 @@
       <c r="L71" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M71" s="187" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="187" customFormat="1" ht="150">
+      <c r="M71" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="187" customFormat="1" ht="150" hidden="1">
       <c r="A72" s="155" t="s">
         <v>1318</v>
       </c>
@@ -57931,7 +58007,7 @@
       <c r="G72" s="167" t="s">
         <v>1670</v>
       </c>
-      <c r="H72" s="203" t="s">
+      <c r="H72" s="198" t="s">
         <v>1671</v>
       </c>
       <c r="I72" s="151" t="s">
@@ -57946,11 +58022,11 @@
       <c r="L72" s="143" t="s">
         <v>1299</v>
       </c>
-      <c r="M72" s="187" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="90">
+      <c r="M72" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="90" hidden="1">
       <c r="A73" s="155" t="s">
         <v>1328</v>
       </c>
@@ -57972,7 +58048,7 @@
       <c r="G73" s="164" t="s">
         <v>1592</v>
       </c>
-      <c r="H73" s="201" t="s">
+      <c r="H73" s="197" t="s">
         <v>1329</v>
       </c>
       <c r="I73" s="168" t="s">
@@ -57987,9 +58063,11 @@
       <c r="L73" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M73" s="187"/>
-    </row>
-    <row r="74" spans="1:13" ht="45">
+      <c r="M73" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="45" hidden="1">
       <c r="A74" s="155" t="s">
         <v>1672</v>
       </c>
@@ -58011,7 +58089,7 @@
       <c r="G74" s="167" t="s">
         <v>1592</v>
       </c>
-      <c r="H74" s="197" t="s">
+      <c r="H74" s="193" t="s">
         <v>1673</v>
       </c>
       <c r="I74" s="168" t="s">
@@ -58026,9 +58104,11 @@
       <c r="L74" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M74" s="187"/>
-    </row>
-    <row r="75" spans="1:13" s="187" customFormat="1">
+      <c r="M74" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A75" s="155" t="s">
         <v>1757</v>
       </c>
@@ -58065,8 +58145,11 @@
       <c r="L75" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" s="187" customFormat="1" ht="90">
+      <c r="M75" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="187" customFormat="1" ht="90" hidden="1">
       <c r="A76" s="155" t="s">
         <v>1676</v>
       </c>
@@ -58088,8 +58171,8 @@
       <c r="G76" s="164" t="s">
         <v>1592</v>
       </c>
-      <c r="H76" s="197" t="s">
-        <v>1838</v>
+      <c r="H76" s="193" t="s">
+        <v>1821</v>
       </c>
       <c r="I76" s="168" t="s">
         <v>1677</v>
@@ -58103,8 +58186,11 @@
       <c r="L76" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="M76" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="155" t="s">
         <v>1680</v>
       </c>
@@ -58141,9 +58227,11 @@
       <c r="L77" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M77" s="187"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="M77" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="114" t="s">
         <v>1679</v>
       </c>
@@ -58180,11 +58268,11 @@
       <c r="L78" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M78" s="204" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="60">
+      <c r="M78" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="60" hidden="1">
       <c r="A79" s="155" t="s">
         <v>1684</v>
       </c>
@@ -58206,8 +58294,8 @@
       <c r="G79" s="164" t="s">
         <v>1592</v>
       </c>
-      <c r="H79" s="197" t="s">
-        <v>1839</v>
+      <c r="H79" s="193" t="s">
+        <v>1822</v>
       </c>
       <c r="I79" s="158" t="s">
         <v>1685</v>
@@ -58221,8 +58309,11 @@
       <c r="L79" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="M79" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="155" t="s">
         <v>1687</v>
       </c>
@@ -58259,9 +58350,11 @@
       <c r="L80" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M80" s="187"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="M80" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="155" t="s">
         <v>1687</v>
       </c>
@@ -58269,7 +58362,7 @@
         <v>345</v>
       </c>
       <c r="C81" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D81" s="163">
         <v>44056</v>
@@ -58298,8 +58391,11 @@
       <c r="L81" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" s="187" customFormat="1">
+      <c r="M81" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A82" s="155" t="s">
         <v>1691</v>
       </c>
@@ -58336,8 +58432,11 @@
       <c r="L82" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" s="187" customFormat="1">
+      <c r="M82" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="187" customFormat="1" hidden="1">
       <c r="A83" s="155" t="s">
         <v>1691</v>
       </c>
@@ -58345,7 +58444,7 @@
         <v>345</v>
       </c>
       <c r="C83" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D83" s="163">
         <v>44068</v>
@@ -58374,9 +58473,11 @@
       <c r="L83" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M83" s="185"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="M83" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="155" t="s">
         <v>1695</v>
       </c>
@@ -58413,8 +58514,11 @@
       <c r="L84" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="M84" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="155" t="s">
         <v>1695</v>
       </c>
@@ -58422,7 +58526,7 @@
         <v>345</v>
       </c>
       <c r="C85" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D85" s="163">
         <v>44075</v>
@@ -58451,8 +58555,11 @@
       <c r="L85" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="60">
+      <c r="M85" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="60" hidden="1">
       <c r="A86" s="155" t="s">
         <v>1698</v>
       </c>
@@ -58474,7 +58581,7 @@
       <c r="G86" s="143" t="s">
         <v>1592</v>
       </c>
-      <c r="H86" s="196" t="s">
+      <c r="H86" s="192" t="s">
         <v>1699</v>
       </c>
       <c r="I86" s="158" t="s">
@@ -58489,9 +58596,11 @@
       <c r="L86" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M86" s="186"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="M86" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="155" t="s">
         <v>1698</v>
       </c>
@@ -58499,7 +58608,7 @@
         <v>345</v>
       </c>
       <c r="C87" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D87" s="163">
         <v>44082</v>
@@ -58528,16 +58637,19 @@
       <c r="L87" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="M87" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="155" t="s">
-        <v>1809</v>
+        <v>1792</v>
       </c>
       <c r="B88" s="143" t="s">
         <v>345</v>
       </c>
       <c r="C88" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D88" s="163"/>
       <c r="E88" s="163">
@@ -58547,13 +58659,13 @@
         <v>1756</v>
       </c>
       <c r="G88" s="143" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H88" s="207" t="s">
-        <v>1812</v>
+        <v>1793</v>
+      </c>
+      <c r="H88" s="199" t="s">
+        <v>1795</v>
       </c>
       <c r="I88" s="158" t="s">
-        <v>1817</v>
+        <v>1800</v>
       </c>
       <c r="J88" s="166" t="s">
         <v>25</v>
@@ -58564,32 +58676,35 @@
       <c r="L88" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="M88" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="155" t="s">
-        <v>1822</v>
+        <v>1805</v>
       </c>
       <c r="B89" s="143" t="s">
         <v>345</v>
       </c>
       <c r="C89" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D89" s="163"/>
       <c r="E89" s="163">
         <v>44126</v>
       </c>
       <c r="F89" s="143" t="s">
-        <v>1814</v>
+        <v>1797</v>
       </c>
       <c r="G89" s="143" t="s">
-        <v>1815</v>
+        <v>1798</v>
       </c>
       <c r="H89" s="143" t="s">
-        <v>1821</v>
+        <v>1804</v>
       </c>
       <c r="I89" s="158" t="s">
-        <v>1816</v>
+        <v>1799</v>
       </c>
       <c r="J89" s="166" t="s">
         <v>25</v>
@@ -58600,32 +58715,35 @@
       <c r="L89" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="207" t="s">
-        <v>1813</v>
+      <c r="M89" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1">
+      <c r="A90" s="199" t="s">
+        <v>1796</v>
       </c>
       <c r="B90" s="143" t="s">
         <v>345</v>
       </c>
       <c r="C90" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D90" s="156"/>
-      <c r="E90" s="208">
+      <c r="E90" s="200">
         <v>44154</v>
       </c>
       <c r="F90" s="143" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G90" s="143" t="s">
         <v>1793</v>
       </c>
-      <c r="G90" s="143" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H90" s="207" t="s">
-        <v>1812</v>
+      <c r="H90" s="199" t="s">
+        <v>1795</v>
       </c>
       <c r="I90" s="156" t="s">
-        <v>1811</v>
+        <v>1794</v>
       </c>
       <c r="J90" s="156" t="s">
         <v>25</v>
@@ -58636,32 +58754,35 @@
       <c r="L90" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="207" t="s">
-        <v>1823</v>
+      <c r="M90" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" hidden="1">
+      <c r="A91" s="199" t="s">
+        <v>1806</v>
       </c>
       <c r="B91" s="143" t="s">
         <v>345</v>
       </c>
       <c r="C91" s="156" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="D91" s="156"/>
-      <c r="E91" s="208">
+      <c r="E91" s="200">
         <v>44118</v>
       </c>
       <c r="F91" s="143" t="s">
         <v>1488</v>
       </c>
       <c r="G91" s="143" t="s">
-        <v>1818</v>
+        <v>1801</v>
       </c>
       <c r="H91" s="156" t="s">
-        <v>1820</v>
+        <v>1803</v>
       </c>
       <c r="I91" s="156" t="s">
-        <v>1819</v>
+        <v>1802</v>
       </c>
       <c r="J91" s="156" t="s">
         <v>25</v>
@@ -58672,8 +58793,11 @@
       <c r="L91" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="M91" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="155" t="s">
         <v>1389</v>
       </c>
@@ -58710,9 +58834,11 @@
       <c r="L92" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M92" s="187"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="M92" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="114" t="s">
         <v>1626</v>
       </c>
@@ -58747,9 +58873,11 @@
       <c r="L93" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M93" s="187"/>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="M93" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="114" t="s">
         <v>1631</v>
       </c>
@@ -58784,9 +58912,11 @@
       <c r="L94" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="187"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="M94" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="114" t="s">
         <v>1630</v>
       </c>
@@ -58821,9 +58951,11 @@
       <c r="L95" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M95" s="187"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="M95" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="155" t="s">
         <v>1747</v>
       </c>
@@ -58860,9 +58992,11 @@
       <c r="L96" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="M96" s="187"/>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="M96" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" s="155" t="s">
         <v>1750</v>
       </c>
@@ -58899,8 +59033,11 @@
       <c r="L97" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="M97" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="155" t="s">
         <v>1753</v>
       </c>
@@ -58937,10 +59074,13 @@
       <c r="L98" s="143" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="M98" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="114" t="s">
-        <v>1844</v>
+        <v>1826</v>
       </c>
       <c r="B99" s="110" t="s">
         <v>503</v>
@@ -58956,25 +59096,28 @@
         <v>59</v>
       </c>
       <c r="G99" s="110"/>
-      <c r="H99" s="217" t="s">
-        <v>1847</v>
-      </c>
-      <c r="I99" s="215" t="s">
-        <v>1845</v>
+      <c r="H99" s="205" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I99" s="203" t="s">
+        <v>1827</v>
       </c>
       <c r="J99" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="K99" s="216" t="s">
+      <c r="K99" s="204" t="s">
         <v>18</v>
       </c>
       <c r="L99" s="110" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="M99" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="114" t="s">
-        <v>1846</v>
+        <v>1828</v>
       </c>
       <c r="B100" s="110" t="s">
         <v>503</v>
@@ -58992,23 +59135,26 @@
       <c r="G100" s="110" t="s">
         <v>1591</v>
       </c>
-      <c r="H100" s="214" t="s">
-        <v>1843</v>
-      </c>
-      <c r="I100" s="215" t="s">
+      <c r="H100" s="202" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I100" s="203" t="s">
         <v>1629</v>
       </c>
       <c r="J100" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="K100" s="216" t="s">
+      <c r="K100" s="204" t="s">
         <v>91</v>
       </c>
       <c r="L100" s="110" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="M100" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="114" t="s">
         <v>1413</v>
       </c>
@@ -59045,8 +59191,11 @@
       <c r="L101" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="M101" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="114" t="s">
         <v>1415</v>
       </c>
@@ -59083,11 +59232,11 @@
       <c r="L102" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M102" s="194" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="M102" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="114" t="s">
         <v>1415</v>
       </c>
@@ -59124,11 +59273,11 @@
       <c r="L103" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M103" s="194" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="M103" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" s="114" t="s">
         <v>1415</v>
       </c>
@@ -59165,11 +59314,11 @@
       <c r="L104" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M104" s="194" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="M104" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" s="114" t="s">
         <v>1415</v>
       </c>
@@ -59206,11 +59355,11 @@
       <c r="L105" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="194" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="M105" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" s="114" t="s">
         <v>1415</v>
       </c>
@@ -59247,11 +59396,11 @@
       <c r="L106" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M106" s="194" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="M106" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="114" t="s">
         <v>1418</v>
       </c>
@@ -59288,8 +59437,11 @@
       <c r="L107" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="M107" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59326,8 +59478,11 @@
       <c r="L108" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="M108" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59364,8 +59519,11 @@
       <c r="L109" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="M109" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59402,8 +59560,11 @@
       <c r="L110" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="M110" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59440,8 +59601,11 @@
       <c r="L111" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="M111" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59478,8 +59642,11 @@
       <c r="L112" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="M112" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59516,8 +59683,11 @@
       <c r="L113" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="M113" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59554,8 +59724,11 @@
       <c r="L114" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="M114" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" s="114" t="s">
         <v>1421</v>
       </c>
@@ -59592,8 +59765,11 @@
       <c r="L115" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="M115" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" s="114" t="s">
         <v>1424</v>
       </c>
@@ -59630,8 +59806,11 @@
       <c r="L116" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="M116" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="114" t="s">
         <v>1424</v>
       </c>
@@ -59668,8 +59847,11 @@
       <c r="L117" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="M117" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="114" t="s">
         <v>1424</v>
       </c>
@@ -59706,8 +59888,11 @@
       <c r="L118" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="M118" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="114" t="s">
         <v>1424</v>
       </c>
@@ -59744,8 +59929,11 @@
       <c r="L119" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="M119" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="114" t="s">
         <v>1424</v>
       </c>
@@ -59782,8 +59970,11 @@
       <c r="L120" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="M120" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" s="114" t="s">
         <v>1424</v>
       </c>
@@ -59820,8 +60011,11 @@
       <c r="L121" s="116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="M121" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" s="117" t="s">
         <v>1424</v>
       </c>
@@ -59858,8 +60052,11 @@
       <c r="L122" s="120" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="M122" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" s="114" t="s">
         <v>1495</v>
       </c>
@@ -59878,11 +60075,11 @@
       <c r="F123" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G123" s="198" t="s">
+      <c r="G123" s="194" t="s">
         <v>1607</v>
       </c>
-      <c r="H123" s="198" t="s">
-        <v>1848</v>
+      <c r="H123" s="194" t="s">
+        <v>1830</v>
       </c>
       <c r="I123" s="129" t="s">
         <v>1519</v>
@@ -59896,8 +60093,11 @@
       <c r="L123" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="M123" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" s="117" t="s">
         <v>1505</v>
       </c>
@@ -59917,7 +60117,7 @@
         <v>13</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H124" s="121" t="s">
         <v>1601</v>
@@ -59934,11 +60134,11 @@
       <c r="L124" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M124" s="211" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="M124" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" s="114" t="s">
         <v>1505</v>
       </c>
@@ -59958,7 +60158,7 @@
         <v>13</v>
       </c>
       <c r="G125" s="116" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H125" s="129" t="s">
         <v>1601</v>
@@ -59975,11 +60175,11 @@
       <c r="L125" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M125" s="211" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="M125" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" s="114" t="s">
         <v>1514</v>
       </c>
@@ -59996,13 +60196,13 @@
         <v>44142</v>
       </c>
       <c r="F126" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G126" s="198" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G126" s="194" t="s">
         <v>1604</v>
       </c>
-      <c r="H126" s="198" t="s">
-        <v>1849</v>
+      <c r="H126" s="194" t="s">
+        <v>1831</v>
       </c>
       <c r="I126" s="129" t="s">
         <v>1599</v>
@@ -60016,8 +60216,11 @@
       <c r="L126" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="M126" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" s="114" t="s">
         <v>1514</v>
       </c>
@@ -60034,13 +60237,13 @@
         <v>44142</v>
       </c>
       <c r="F127" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G127" s="198" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G127" s="194" t="s">
         <v>1604</v>
       </c>
-      <c r="H127" s="198" t="s">
-        <v>1849</v>
+      <c r="H127" s="194" t="s">
+        <v>1831</v>
       </c>
       <c r="I127" s="129" t="s">
         <v>1599</v>
@@ -60054,8 +60257,11 @@
       <c r="L127" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="M127" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" s="114" t="s">
         <v>1514</v>
       </c>
@@ -60072,13 +60278,13 @@
         <v>44142</v>
       </c>
       <c r="F128" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G128" s="198" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G128" s="194" t="s">
         <v>1604</v>
       </c>
-      <c r="H128" s="198" t="s">
-        <v>1849</v>
+      <c r="H128" s="194" t="s">
+        <v>1831</v>
       </c>
       <c r="I128" s="129" t="s">
         <v>1599</v>
@@ -60092,8 +60298,11 @@
       <c r="L128" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="M128" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" hidden="1">
       <c r="A129" s="114" t="s">
         <v>1514</v>
       </c>
@@ -60101,7 +60310,7 @@
         <v>712</v>
       </c>
       <c r="C129" s="129" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D129" s="130">
         <v>44138</v>
@@ -60110,13 +60319,13 @@
         <v>44142</v>
       </c>
       <c r="F129" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G129" s="198" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G129" s="194" t="s">
         <v>1604</v>
       </c>
-      <c r="H129" s="198" t="s">
-        <v>1849</v>
+      <c r="H129" s="194" t="s">
+        <v>1831</v>
       </c>
       <c r="I129" s="129" t="s">
         <v>1599</v>
@@ -60130,8 +60339,11 @@
       <c r="L129" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="M129" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" hidden="1">
       <c r="A130" s="114" t="s">
         <v>1514</v>
       </c>
@@ -60148,13 +60360,13 @@
         <v>44142</v>
       </c>
       <c r="F130" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G130" s="198" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G130" s="194" t="s">
         <v>1604</v>
       </c>
-      <c r="H130" s="198" t="s">
-        <v>1849</v>
+      <c r="H130" s="194" t="s">
+        <v>1831</v>
       </c>
       <c r="I130" s="129" t="s">
         <v>1599</v>
@@ -60168,8 +60380,11 @@
       <c r="L130" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="M130" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="114" t="s">
         <v>1514</v>
       </c>
@@ -60186,13 +60401,13 @@
         <v>44142</v>
       </c>
       <c r="F131" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G131" s="198" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G131" s="194" t="s">
         <v>1604</v>
       </c>
-      <c r="H131" s="198" t="s">
-        <v>1849</v>
+      <c r="H131" s="194" t="s">
+        <v>1831</v>
       </c>
       <c r="I131" s="129" t="s">
         <v>1599</v>
@@ -60206,8 +60421,11 @@
       <c r="L131" s="122" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="M131" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="114" t="s">
         <v>1514</v>
       </c>
@@ -60226,11 +60444,11 @@
       <c r="F132" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G132" s="198" t="s">
+      <c r="G132" s="194" t="s">
         <v>1607</v>
       </c>
-      <c r="H132" s="198" t="s">
-        <v>1851</v>
+      <c r="H132" s="194" t="s">
+        <v>1833</v>
       </c>
       <c r="I132" s="129" t="s">
         <v>1599</v>
@@ -60244,11 +60462,11 @@
       <c r="L132" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M132" s="185" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="M132" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" s="188" t="s">
         <v>1518</v>
       </c>
@@ -60265,13 +60483,13 @@
         <v>44149</v>
       </c>
       <c r="F133" s="116" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G133" s="218" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G133" s="206" t="s">
         <v>1606</v>
       </c>
-      <c r="H133" s="198" t="s">
-        <v>1850</v>
+      <c r="H133" s="194" t="s">
+        <v>1832</v>
       </c>
       <c r="I133" s="129" t="s">
         <v>1508</v>
@@ -60285,11 +60503,11 @@
       <c r="L133" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M133" s="185" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="M133" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="114" t="s">
         <v>1525</v>
       </c>
@@ -60324,11 +60542,11 @@
       <c r="L134" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M134" s="195" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="M134" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="114" t="s">
         <v>1525</v>
       </c>
@@ -60351,7 +60569,7 @@
         <v>1607</v>
       </c>
       <c r="H135" s="129" t="s">
-        <v>1852</v>
+        <v>1834</v>
       </c>
       <c r="I135" s="129" t="s">
         <v>1612</v>
@@ -60365,11 +60583,11 @@
       <c r="L135" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M135" s="204" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="M135" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="114" t="s">
         <v>1525</v>
       </c>
@@ -60392,7 +60610,7 @@
         <v>1606</v>
       </c>
       <c r="H136" s="116" t="s">
-        <v>1854</v>
+        <v>1836</v>
       </c>
       <c r="I136" s="129" t="s">
         <v>1610</v>
@@ -60406,11 +60624,11 @@
       <c r="L136" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M136" s="195" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="M136" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" s="114" t="s">
         <v>1525</v>
       </c>
@@ -60427,13 +60645,13 @@
         <v>44151</v>
       </c>
       <c r="F137" s="116" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G137" s="129" t="s">
         <v>1607</v>
       </c>
       <c r="H137" s="129" t="s">
-        <v>1853</v>
+        <v>1835</v>
       </c>
       <c r="I137" s="129" t="s">
         <v>1551</v>
@@ -60447,11 +60665,11 @@
       <c r="L137" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M137" s="204" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="M137" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="114" t="s">
         <v>1546</v>
       </c>
@@ -60474,7 +60692,7 @@
         <v>1608</v>
       </c>
       <c r="H138" s="116" t="s">
-        <v>1855</v>
+        <v>1837</v>
       </c>
       <c r="I138" s="129" t="s">
         <v>1600</v>
@@ -60488,11 +60706,11 @@
       <c r="L138" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M138" s="185" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="M138" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60529,8 +60747,11 @@
       <c r="L139" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="M139" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60538,7 +60759,7 @@
         <v>712</v>
       </c>
       <c r="C140" s="143" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D140" s="163">
         <v>44057</v>
@@ -60567,8 +60788,11 @@
       <c r="L140" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="M140" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60576,7 +60800,7 @@
         <v>712</v>
       </c>
       <c r="C141" s="143" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D141" s="163">
         <v>44057</v>
@@ -60605,8 +60829,11 @@
       <c r="L141" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="M141" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60643,8 +60870,11 @@
       <c r="L142" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="M142" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60681,8 +60911,11 @@
       <c r="L143" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="M143" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60719,9 +60952,11 @@
       <c r="L144" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M144" s="206"/>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="M144" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60758,9 +60993,11 @@
       <c r="L145" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M145" s="206"/>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="M145" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60797,9 +61034,11 @@
       <c r="L146" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M146" s="206"/>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="M146" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60836,8 +61075,11 @@
       <c r="L147" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="M147" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60874,8 +61116,11 @@
       <c r="L148" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="M148" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60912,8 +61157,11 @@
       <c r="L149" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="M149" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="155" t="s">
         <v>1547</v>
       </c>
@@ -60950,8 +61198,11 @@
       <c r="L150" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="M150" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="114" t="s">
         <v>1547</v>
       </c>
@@ -60988,11 +61239,11 @@
       <c r="L151" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M151" s="212" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="M151" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="188" t="s">
         <v>1770</v>
       </c>
@@ -61015,7 +61266,7 @@
         <v>1604</v>
       </c>
       <c r="H152" s="129" t="s">
-        <v>1856</v>
+        <v>1838</v>
       </c>
       <c r="I152" s="129" t="s">
         <v>1412</v>
@@ -61029,8 +61280,11 @@
       <c r="L152" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="M152" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="114" t="s">
         <v>1548</v>
       </c>
@@ -61065,11 +61319,11 @@
       <c r="L153" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="M153" s="212" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="M153" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61106,8 +61360,11 @@
       <c r="L154" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="M154" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61115,7 +61372,7 @@
         <v>712</v>
       </c>
       <c r="C155" s="143" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D155" s="163">
         <v>44082</v>
@@ -61144,8 +61401,11 @@
       <c r="L155" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="M155" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61153,7 +61413,7 @@
         <v>712</v>
       </c>
       <c r="C156" s="143" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D156" s="163">
         <v>44082</v>
@@ -61182,8 +61442,11 @@
       <c r="L156" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="M156" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61220,8 +61483,11 @@
       <c r="L157" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="M157" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61258,8 +61524,11 @@
       <c r="L158" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="M158" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61296,8 +61565,11 @@
       <c r="L159" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="M159" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61334,8 +61606,11 @@
       <c r="L160" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="M160" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61372,8 +61647,11 @@
       <c r="L161" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="M161" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61410,8 +61688,11 @@
       <c r="L162" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="M162" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61448,8 +61729,11 @@
       <c r="L163" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="M163" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61486,8 +61770,11 @@
       <c r="L164" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="M164" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="155" t="s">
         <v>1635</v>
       </c>
@@ -61524,8 +61811,11 @@
       <c r="L165" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="M165" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61562,11 +61852,11 @@
       <c r="L166" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M166" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="M166" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61574,7 +61864,7 @@
         <v>712</v>
       </c>
       <c r="C167" s="143" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D167" s="145">
         <v>44099</v>
@@ -61603,11 +61893,11 @@
       <c r="L167" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M167" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="M167" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61615,7 +61905,7 @@
         <v>712</v>
       </c>
       <c r="C168" s="143" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D168" s="145">
         <v>44099</v>
@@ -61644,11 +61934,11 @@
       <c r="L168" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M168" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="M168" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61685,11 +61975,11 @@
       <c r="L169" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M169" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="M169" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61726,11 +62016,11 @@
       <c r="L170" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M170" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="M170" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61767,11 +62057,11 @@
       <c r="L171" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M171" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="M171" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61808,11 +62098,11 @@
       <c r="L172" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M172" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="M172" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61849,11 +62139,11 @@
       <c r="L173" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M173" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="M173" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61890,11 +62180,11 @@
       <c r="L174" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M174" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="M174" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61931,11 +62221,11 @@
       <c r="L175" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M175" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="M175" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="155" t="s">
         <v>1634</v>
       </c>
@@ -61972,11 +62262,11 @@
       <c r="L176" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M176" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="M176" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="155" t="s">
         <v>1634</v>
       </c>
@@ -62013,11 +62303,11 @@
       <c r="L177" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="M177" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="M177" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="114" t="s">
         <v>1768</v>
       </c>
@@ -62054,13 +62344,13 @@
       <c r="L178" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M178" s="210" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="M178" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B179" s="129" t="s">
         <v>712</v>
@@ -62081,13 +62371,13 @@
         <v>1608</v>
       </c>
       <c r="H179" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I179" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I179" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J179" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K179" s="129" t="s">
         <v>18</v>
@@ -62095,16 +62385,19 @@
       <c r="L179" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="M179" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B180" s="129" t="s">
         <v>712</v>
       </c>
       <c r="C180" s="110" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D180" s="130">
         <v>44186</v>
@@ -62119,13 +62412,13 @@
         <v>1608</v>
       </c>
       <c r="H180" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I180" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I180" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J180" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K180" s="129" t="s">
         <v>18</v>
@@ -62133,16 +62426,19 @@
       <c r="L180" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="M180" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B181" s="129" t="s">
         <v>712</v>
       </c>
       <c r="C181" s="110" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D181" s="130">
         <v>44186</v>
@@ -62157,13 +62453,13 @@
         <v>1608</v>
       </c>
       <c r="H181" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I181" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I181" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J181" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K181" s="129" t="s">
         <v>18</v>
@@ -62171,10 +62467,13 @@
       <c r="L181" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="M181" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B182" s="129" t="s">
         <v>712</v>
@@ -62195,13 +62494,13 @@
         <v>1608</v>
       </c>
       <c r="H182" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I182" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I182" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J182" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K182" s="129" t="s">
         <v>18</v>
@@ -62209,11 +62508,13 @@
       <c r="L182" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M182" s="206"/>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="M182" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B183" s="129" t="s">
         <v>712</v>
@@ -62234,13 +62535,13 @@
         <v>1608</v>
       </c>
       <c r="H183" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I183" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I183" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J183" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K183" s="129" t="s">
         <v>18</v>
@@ -62248,11 +62549,13 @@
       <c r="L183" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M183" s="206"/>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="M183" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B184" s="129" t="s">
         <v>712</v>
@@ -62273,13 +62576,13 @@
         <v>1608</v>
       </c>
       <c r="H184" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I184" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I184" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J184" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K184" s="129" t="s">
         <v>18</v>
@@ -62287,11 +62590,13 @@
       <c r="L184" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M184" s="206"/>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="M184" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B185" s="129" t="s">
         <v>712</v>
@@ -62312,13 +62617,13 @@
         <v>1608</v>
       </c>
       <c r="H185" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I185" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I185" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J185" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K185" s="129" t="s">
         <v>18</v>
@@ -62326,11 +62631,13 @@
       <c r="L185" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M185" s="206"/>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="M185" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B186" s="129" t="s">
         <v>712</v>
@@ -62351,13 +62658,13 @@
         <v>1608</v>
       </c>
       <c r="H186" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I186" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I186" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J186" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K186" s="129" t="s">
         <v>18</v>
@@ -62365,10 +62672,13 @@
       <c r="L186" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="M186" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B187" s="129" t="s">
         <v>712</v>
@@ -62389,13 +62699,13 @@
         <v>1608</v>
       </c>
       <c r="H187" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I187" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I187" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J187" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K187" s="129" t="s">
         <v>18</v>
@@ -62403,10 +62713,13 @@
       <c r="L187" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="M187" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B188" s="129" t="s">
         <v>712</v>
@@ -62427,13 +62740,13 @@
         <v>1608</v>
       </c>
       <c r="H188" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I188" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I188" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J188" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K188" s="129" t="s">
         <v>18</v>
@@ -62441,10 +62754,13 @@
       <c r="L188" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="M188" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B189" s="129" t="s">
         <v>712</v>
@@ -62465,13 +62781,13 @@
         <v>1608</v>
       </c>
       <c r="H189" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I189" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I189" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J189" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K189" s="129" t="s">
         <v>18</v>
@@ -62479,10 +62795,13 @@
       <c r="L189" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="M189" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" s="188" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B190" s="129" t="s">
         <v>712</v>
@@ -62503,13 +62822,13 @@
         <v>1608</v>
       </c>
       <c r="H190" s="188" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I190" s="129" t="s">
         <v>1778</v>
       </c>
-      <c r="I190" s="129" t="s">
-        <v>1779</v>
-      </c>
       <c r="J190" s="129" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K190" s="129" t="s">
         <v>18</v>
@@ -62517,10 +62836,13 @@
       <c r="L190" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="M190" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="114" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B191" s="110" t="s">
         <v>712</v>
@@ -62533,7 +62855,7 @@
         <v>44172</v>
       </c>
       <c r="F191" s="115" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G191" s="129" t="s">
         <v>1607</v>
@@ -62551,13 +62873,13 @@
       <c r="L191" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="M191" s="192" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="M191" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="188" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B192" s="110" t="s">
         <v>712</v>
@@ -62581,7 +62903,7 @@
         <v>1596</v>
       </c>
       <c r="I192" s="129" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J192" s="129" t="s">
         <v>25</v>
@@ -62592,19 +62914,19 @@
       <c r="L192" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="M192" s="195" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="M192" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="188" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B193" s="110" t="s">
         <v>712</v>
       </c>
       <c r="C193" s="129" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D193" s="130">
         <v>44183</v>
@@ -62619,10 +62941,10 @@
         <v>1607</v>
       </c>
       <c r="H193" s="129" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I193" s="129" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="J193" s="129" t="s">
         <v>25</v>
@@ -62633,8 +62955,11 @@
       <c r="L193" s="129" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="M193" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="178" t="s">
         <v>1569</v>
       </c>
@@ -62671,8 +62996,11 @@
       <c r="L194" s="106" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="M194" s="190" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="177" t="s">
         <v>1572</v>
       </c>
@@ -62695,7 +63023,7 @@
         <v>1566</v>
       </c>
       <c r="H195" s="129" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
       <c r="I195" s="129" t="s">
         <v>1570</v>
@@ -62709,11 +63037,11 @@
       <c r="L195" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M195" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="M195" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="181" t="s">
         <v>1576</v>
       </c>
@@ -62750,8 +63078,11 @@
       <c r="L196" s="106" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="M196" s="190" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="155" t="s">
         <v>1716</v>
       </c>
@@ -62788,8 +63119,11 @@
       <c r="L197" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="M197" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="155" t="s">
         <v>1716</v>
       </c>
@@ -62826,8 +63160,11 @@
       <c r="L198" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="M198" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="155" t="s">
         <v>1716</v>
       </c>
@@ -62835,7 +63172,7 @@
         <v>950</v>
       </c>
       <c r="C199" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D199" s="163">
         <v>44053</v>
@@ -62864,8 +63201,11 @@
       <c r="L199" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="M199" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="155" t="s">
         <v>1716</v>
       </c>
@@ -62873,7 +63213,7 @@
         <v>950</v>
       </c>
       <c r="C200" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D200" s="163">
         <v>44053</v>
@@ -62902,8 +63242,11 @@
       <c r="L200" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="M200" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="155" t="s">
         <v>1716</v>
       </c>
@@ -62911,7 +63254,7 @@
         <v>950</v>
       </c>
       <c r="C201" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D201" s="163">
         <v>44053</v>
@@ -62940,8 +63283,11 @@
       <c r="L201" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="M201" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="155" t="s">
         <v>1720</v>
       </c>
@@ -62978,8 +63324,11 @@
       <c r="L202" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="M202" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63016,8 +63365,11 @@
       <c r="L203" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="M203" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63025,7 +63377,7 @@
         <v>950</v>
       </c>
       <c r="C204" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D204" s="163">
         <v>44062</v>
@@ -63054,8 +63406,11 @@
       <c r="L204" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="M204" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63063,7 +63418,7 @@
         <v>950</v>
       </c>
       <c r="C205" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D205" s="163">
         <v>44062</v>
@@ -63092,8 +63447,11 @@
       <c r="L205" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="M205" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63101,7 +63459,7 @@
         <v>950</v>
       </c>
       <c r="C206" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D206" s="163">
         <v>44062</v>
@@ -63130,8 +63488,11 @@
       <c r="L206" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="M206" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="155" t="s">
         <v>1722</v>
       </c>
@@ -63168,8 +63529,11 @@
       <c r="L207" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="M207" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="155" t="s">
         <v>1722</v>
       </c>
@@ -63206,8 +63570,11 @@
       <c r="L208" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="209" spans="1:13">
+      <c r="M208" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="155" t="s">
         <v>1722</v>
       </c>
@@ -63215,7 +63582,7 @@
         <v>950</v>
       </c>
       <c r="C209" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D209" s="163">
         <v>44062</v>
@@ -63244,8 +63611,11 @@
       <c r="L209" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="210" spans="1:13">
+      <c r="M209" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="155" t="s">
         <v>1722</v>
       </c>
@@ -63253,7 +63623,7 @@
         <v>950</v>
       </c>
       <c r="C210" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D210" s="163">
         <v>44062</v>
@@ -63282,8 +63652,11 @@
       <c r="L210" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="211" spans="1:13">
+      <c r="M210" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="155" t="s">
         <v>1722</v>
       </c>
@@ -63291,7 +63664,7 @@
         <v>950</v>
       </c>
       <c r="C211" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D211" s="163">
         <v>44062</v>
@@ -63320,8 +63693,11 @@
       <c r="L211" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="M211" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="155" t="s">
         <v>1760</v>
       </c>
@@ -63358,8 +63734,11 @@
       <c r="L212" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:13">
+      <c r="M212" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="155" t="s">
         <v>1760</v>
       </c>
@@ -63396,9 +63775,11 @@
       <c r="L213" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M213" s="206"/>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="M213" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="155" t="s">
         <v>1760</v>
       </c>
@@ -63406,7 +63787,7 @@
         <v>950</v>
       </c>
       <c r="C214" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D214" s="163">
         <v>44062</v>
@@ -63435,8 +63816,11 @@
       <c r="L214" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="M214" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="155" t="s">
         <v>1760</v>
       </c>
@@ -63444,7 +63828,7 @@
         <v>950</v>
       </c>
       <c r="C215" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D215" s="163">
         <v>44062</v>
@@ -63473,8 +63857,11 @@
       <c r="L215" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="216" spans="1:13">
+      <c r="M215" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="155" t="s">
         <v>1760</v>
       </c>
@@ -63482,7 +63869,7 @@
         <v>950</v>
       </c>
       <c r="C216" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D216" s="163">
         <v>44062</v>
@@ -63511,8 +63898,11 @@
       <c r="L216" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="M216" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="155" t="s">
         <v>1724</v>
       </c>
@@ -63549,8 +63939,11 @@
       <c r="L217" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="218" spans="1:13">
+      <c r="M217" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="155" t="s">
         <v>1724</v>
       </c>
@@ -63587,9 +63980,11 @@
       <c r="L218" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M218" s="192"/>
-    </row>
-    <row r="219" spans="1:13">
+      <c r="M218" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="155" t="s">
         <v>1724</v>
       </c>
@@ -63597,7 +63992,7 @@
         <v>950</v>
       </c>
       <c r="C219" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D219" s="163">
         <v>44069</v>
@@ -63626,9 +64021,11 @@
       <c r="L219" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M219" s="192"/>
-    </row>
-    <row r="220" spans="1:13">
+      <c r="M219" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" s="155" t="s">
         <v>1724</v>
       </c>
@@ -63636,7 +64033,7 @@
         <v>950</v>
       </c>
       <c r="C220" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D220" s="163">
         <v>44069</v>
@@ -63665,9 +64062,11 @@
       <c r="L220" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M220" s="192"/>
-    </row>
-    <row r="221" spans="1:13">
+      <c r="M220" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" s="155" t="s">
         <v>1724</v>
       </c>
@@ -63675,7 +64074,7 @@
         <v>950</v>
       </c>
       <c r="C221" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D221" s="163">
         <v>44069</v>
@@ -63704,9 +64103,11 @@
       <c r="L221" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M221" s="192"/>
-    </row>
-    <row r="222" spans="1:13" ht="75">
+      <c r="M221" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="75" hidden="1">
       <c r="A222" s="155" t="s">
         <v>1727</v>
       </c>
@@ -63728,7 +64129,7 @@
       <c r="G222" s="143" t="s">
         <v>1594</v>
       </c>
-      <c r="H222" s="199" t="s">
+      <c r="H222" s="195" t="s">
         <v>1728</v>
       </c>
       <c r="I222" s="158" t="s">
@@ -63743,11 +64144,11 @@
       <c r="L222" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M222" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+      <c r="M222" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="155" t="s">
         <v>1727</v>
       </c>
@@ -63784,11 +64185,11 @@
       <c r="L223" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M223" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
+      <c r="M223" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="155" t="s">
         <v>1727</v>
       </c>
@@ -63796,7 +64197,7 @@
         <v>950</v>
       </c>
       <c r="C224" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D224" s="163">
         <v>44075</v>
@@ -63825,11 +64226,11 @@
       <c r="L224" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M224" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13">
+      <c r="M224" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="155" t="s">
         <v>1727</v>
       </c>
@@ -63837,7 +64238,7 @@
         <v>950</v>
       </c>
       <c r="C225" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D225" s="163">
         <v>44075</v>
@@ -63866,11 +64267,11 @@
       <c r="L225" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M225" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13">
+      <c r="M225" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="155" t="s">
         <v>1727</v>
       </c>
@@ -63878,7 +64279,7 @@
         <v>950</v>
       </c>
       <c r="C226" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D226" s="163">
         <v>44075</v>
@@ -63907,11 +64308,11 @@
       <c r="L226" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M226" s="185" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13">
+      <c r="M226" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="155" t="s">
         <v>1731</v>
       </c>
@@ -63948,8 +64349,11 @@
       <c r="L227" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="228" spans="1:13">
+      <c r="M227" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="155" t="s">
         <v>1731</v>
       </c>
@@ -63986,8 +64390,11 @@
       <c r="L228" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="229" spans="1:13">
+      <c r="M228" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="155" t="s">
         <v>1762</v>
       </c>
@@ -64004,7 +64411,7 @@
         <v>44085</v>
       </c>
       <c r="F229" s="143" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G229" s="143" t="s">
         <v>1628</v>
@@ -64024,9 +64431,11 @@
       <c r="L229" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M229" s="195"/>
-    </row>
-    <row r="230" spans="1:13">
+      <c r="M229" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="155" t="s">
         <v>1762</v>
       </c>
@@ -64043,7 +64452,7 @@
         <v>44085</v>
       </c>
       <c r="F230" s="143" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G230" s="143" t="s">
         <v>1628</v>
@@ -64063,9 +64472,11 @@
       <c r="L230" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M230" s="195"/>
-    </row>
-    <row r="231" spans="1:13">
+      <c r="M230" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="155" t="s">
         <v>1762</v>
       </c>
@@ -64073,7 +64484,7 @@
         <v>950</v>
       </c>
       <c r="C231" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D231" s="163">
         <v>44085</v>
@@ -64082,7 +64493,7 @@
         <v>44085</v>
       </c>
       <c r="F231" s="143" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G231" s="143" t="s">
         <v>1628</v>
@@ -64102,9 +64513,11 @@
       <c r="L231" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M231" s="195"/>
-    </row>
-    <row r="232" spans="1:13">
+      <c r="M231" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="155" t="s">
         <v>1762</v>
       </c>
@@ -64112,7 +64525,7 @@
         <v>950</v>
       </c>
       <c r="C232" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D232" s="163">
         <v>44085</v>
@@ -64121,7 +64534,7 @@
         <v>44085</v>
       </c>
       <c r="F232" s="143" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G232" s="143" t="s">
         <v>1628</v>
@@ -64141,9 +64554,11 @@
       <c r="L232" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M232" s="195"/>
-    </row>
-    <row r="233" spans="1:13">
+      <c r="M232" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="155" t="s">
         <v>1762</v>
       </c>
@@ -64151,7 +64566,7 @@
         <v>950</v>
       </c>
       <c r="C233" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D233" s="163">
         <v>44085</v>
@@ -64160,7 +64575,7 @@
         <v>44085</v>
       </c>
       <c r="F233" s="143" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G233" s="143" t="s">
         <v>1628</v>
@@ -64180,9 +64595,11 @@
       <c r="L233" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M233" s="195"/>
-    </row>
-    <row r="234" spans="1:13">
+      <c r="M233" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="155" t="s">
         <v>1734</v>
       </c>
@@ -64219,8 +64636,11 @@
       <c r="L234" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="M234" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="155" t="s">
         <v>1734</v>
       </c>
@@ -64257,8 +64677,11 @@
       <c r="L235" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="236" spans="1:13">
+      <c r="M235" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" s="155" t="s">
         <v>1734</v>
       </c>
@@ -64266,7 +64689,7 @@
         <v>950</v>
       </c>
       <c r="C236" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D236" s="163">
         <v>44085</v>
@@ -64295,8 +64718,11 @@
       <c r="L236" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="237" spans="1:13">
+      <c r="M236" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="155" t="s">
         <v>1734</v>
       </c>
@@ -64304,7 +64730,7 @@
         <v>950</v>
       </c>
       <c r="C237" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D237" s="163">
         <v>44085</v>
@@ -64333,8 +64759,11 @@
       <c r="L237" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:13">
+      <c r="M237" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="155" t="s">
         <v>1734</v>
       </c>
@@ -64342,7 +64771,7 @@
         <v>950</v>
       </c>
       <c r="C238" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D238" s="163">
         <v>44085</v>
@@ -64371,8 +64800,11 @@
       <c r="L238" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="239" spans="1:13">
+      <c r="M238" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" s="155" t="s">
         <v>1738</v>
       </c>
@@ -64409,8 +64841,11 @@
       <c r="L239" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="240" spans="1:13">
+      <c r="M239" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="155" t="s">
         <v>1738</v>
       </c>
@@ -64447,8 +64882,11 @@
       <c r="L240" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="241" spans="1:13">
+      <c r="M240" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="155" t="s">
         <v>1738</v>
       </c>
@@ -64456,7 +64894,7 @@
         <v>950</v>
       </c>
       <c r="C241" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D241" s="163">
         <v>44091</v>
@@ -64485,8 +64923,11 @@
       <c r="L241" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="242" spans="1:13">
+      <c r="M241" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="155" t="s">
         <v>1738</v>
       </c>
@@ -64494,7 +64935,7 @@
         <v>950</v>
       </c>
       <c r="C242" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D242" s="163">
         <v>44091</v>
@@ -64523,8 +64964,11 @@
       <c r="L242" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="243" spans="1:13">
+      <c r="M242" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="155" t="s">
         <v>1738</v>
       </c>
@@ -64532,7 +64976,7 @@
         <v>950</v>
       </c>
       <c r="C243" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D243" s="163">
         <v>44091</v>
@@ -64561,8 +65005,11 @@
       <c r="L243" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="244" spans="1:13">
+      <c r="M243" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="155" t="s">
         <v>1741</v>
       </c>
@@ -64599,8 +65046,11 @@
       <c r="L244" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:13">
+      <c r="M244" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" s="155" t="s">
         <v>1741</v>
       </c>
@@ -64637,8 +65087,11 @@
       <c r="L245" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="246" spans="1:13">
+      <c r="M245" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" s="155" t="s">
         <v>1741</v>
       </c>
@@ -64646,7 +65099,7 @@
         <v>950</v>
       </c>
       <c r="C246" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D246" s="163">
         <v>44092</v>
@@ -64675,8 +65128,11 @@
       <c r="L246" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="247" spans="1:13">
+      <c r="M246" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="155" t="s">
         <v>1741</v>
       </c>
@@ -64684,7 +65140,7 @@
         <v>950</v>
       </c>
       <c r="C247" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D247" s="163">
         <v>44092</v>
@@ -64713,8 +65169,11 @@
       <c r="L247" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="248" spans="1:13">
+      <c r="M247" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="155" t="s">
         <v>1741</v>
       </c>
@@ -64722,7 +65181,7 @@
         <v>950</v>
       </c>
       <c r="C248" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D248" s="163">
         <v>44092</v>
@@ -64751,8 +65210,11 @@
       <c r="L248" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="249" spans="1:13">
+      <c r="M248" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="155" t="s">
         <v>1744</v>
       </c>
@@ -64772,7 +65234,7 @@
         <v>13</v>
       </c>
       <c r="G249" s="143" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H249" s="171" t="s">
         <v>1745</v>
@@ -64789,11 +65251,11 @@
       <c r="L249" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M249" s="192" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13">
+      <c r="M249" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" s="155" t="s">
         <v>1744</v>
       </c>
@@ -64813,7 +65275,7 @@
         <v>13</v>
       </c>
       <c r="G250" s="143" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H250" s="171" t="s">
         <v>1745</v>
@@ -64830,11 +65292,11 @@
       <c r="L250" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M250" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13">
+      <c r="M250" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" s="155" t="s">
         <v>1744</v>
       </c>
@@ -64842,7 +65304,7 @@
         <v>950</v>
       </c>
       <c r="C251" s="156" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D251" s="163">
         <v>44094</v>
@@ -64854,7 +65316,7 @@
         <v>13</v>
       </c>
       <c r="G251" s="143" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H251" s="171" t="s">
         <v>1745</v>
@@ -64871,11 +65333,11 @@
       <c r="L251" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M251" s="206" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13">
+      <c r="M251" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" s="155" t="s">
         <v>1744</v>
       </c>
@@ -64883,7 +65345,7 @@
         <v>950</v>
       </c>
       <c r="C252" s="156" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D252" s="163">
         <v>44094</v>
@@ -64895,7 +65357,7 @@
         <v>13</v>
       </c>
       <c r="G252" s="143" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H252" s="171" t="s">
         <v>1745</v>
@@ -64912,11 +65374,11 @@
       <c r="L252" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M252" s="185" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13">
+      <c r="M252" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" s="155" t="s">
         <v>1744</v>
       </c>
@@ -64924,7 +65386,7 @@
         <v>950</v>
       </c>
       <c r="C253" s="156" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D253" s="163">
         <v>44094</v>
@@ -64936,7 +65398,7 @@
         <v>13</v>
       </c>
       <c r="G253" s="143" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
       <c r="H253" s="171" t="s">
         <v>1745</v>
@@ -64953,11 +65415,11 @@
       <c r="L253" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="M253" s="206" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13">
+      <c r="M253" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" s="114" t="s">
         <v>1769</v>
       </c>
@@ -64994,19 +65456,19 @@
       <c r="L254" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M254" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13">
+      <c r="M254" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" s="114" t="s">
-        <v>1829</v>
+        <v>1812</v>
       </c>
       <c r="B255" s="110" t="s">
         <v>950</v>
       </c>
       <c r="C255" s="129" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D255" s="130">
         <v>44144</v>
@@ -65027,7 +65489,7 @@
         <v>1570</v>
       </c>
       <c r="J255" s="129" t="s">
-        <v>1830</v>
+        <v>1813</v>
       </c>
       <c r="K255" s="110" t="s">
         <v>91</v>
@@ -65035,19 +65497,19 @@
       <c r="L255" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M255" s="191" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13">
+      <c r="M255" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" s="114" t="s">
-        <v>1832</v>
+        <v>1815</v>
       </c>
       <c r="B256" s="110" t="s">
         <v>950</v>
       </c>
       <c r="C256" s="129" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D256" s="130">
         <v>44112</v>
@@ -65068,7 +65530,7 @@
         <v>1570</v>
       </c>
       <c r="J256" s="129" t="s">
-        <v>1831</v>
+        <v>1814</v>
       </c>
       <c r="K256" s="110" t="s">
         <v>91</v>
@@ -65076,23 +65538,23 @@
       <c r="L256" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M256" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13">
+      <c r="M256" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" s="114" t="s">
-        <v>1832</v>
+        <v>1815</v>
       </c>
       <c r="B257" s="110" t="s">
         <v>950</v>
       </c>
       <c r="C257" s="129" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D257" s="129"/>
       <c r="E257" s="129" t="s">
-        <v>1834</v>
+        <v>1817</v>
       </c>
       <c r="F257" s="115" t="s">
         <v>13</v>
@@ -65106,20 +65568,22 @@
       <c r="I257" s="129" t="s">
         <v>1570</v>
       </c>
-      <c r="J257" s="129"/>
+      <c r="J257" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="K257" s="110" t="s">
         <v>91</v>
       </c>
       <c r="L257" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M257" s="191" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13">
+      <c r="M257" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" s="188" t="s">
-        <v>1833</v>
+        <v>1816</v>
       </c>
       <c r="B258" s="110" t="s">
         <v>950</v>
@@ -65132,140 +65596,148 @@
         <v>44190</v>
       </c>
       <c r="F258" s="115" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G258" s="115" t="s">
         <v>1566</v>
       </c>
       <c r="H258" s="129" t="s">
-        <v>1828</v>
+        <v>1811</v>
       </c>
       <c r="I258" s="129" t="s">
-        <v>1827</v>
-      </c>
-      <c r="J258" s="129"/>
+        <v>1810</v>
+      </c>
+      <c r="J258" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="K258" s="110" t="s">
         <v>91</v>
       </c>
       <c r="L258" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M258" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13">
+      <c r="M258" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" s="188" t="s">
-        <v>1833</v>
+        <v>1816</v>
       </c>
       <c r="B259" s="110" t="s">
         <v>950</v>
       </c>
       <c r="C259" s="129" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="D259" s="129"/>
       <c r="E259" s="130">
         <v>44190</v>
       </c>
       <c r="F259" s="115" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G259" s="115" t="s">
         <v>1566</v>
       </c>
       <c r="H259" s="129" t="s">
-        <v>1828</v>
+        <v>1811</v>
       </c>
       <c r="I259" s="129" t="s">
-        <v>1827</v>
-      </c>
-      <c r="J259" s="129"/>
+        <v>1810</v>
+      </c>
+      <c r="J259" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="K259" s="110" t="s">
         <v>91</v>
       </c>
       <c r="L259" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M259" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13">
+      <c r="M259" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" s="188" t="s">
-        <v>1833</v>
+        <v>1816</v>
       </c>
       <c r="B260" s="110" t="s">
         <v>950</v>
       </c>
       <c r="C260" s="129" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
       <c r="D260" s="129"/>
       <c r="E260" s="130">
         <v>44190</v>
       </c>
       <c r="F260" s="115" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G260" s="115" t="s">
         <v>1566</v>
       </c>
       <c r="H260" s="129" t="s">
-        <v>1828</v>
+        <v>1811</v>
       </c>
       <c r="I260" s="129" t="s">
-        <v>1827</v>
-      </c>
-      <c r="J260" s="129"/>
+        <v>1810</v>
+      </c>
+      <c r="J260" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="K260" s="110" t="s">
         <v>91</v>
       </c>
       <c r="L260" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M260" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13">
+      <c r="M260" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" s="188" t="s">
-        <v>1833</v>
+        <v>1816</v>
       </c>
       <c r="B261" s="110" t="s">
         <v>950</v>
       </c>
       <c r="C261" s="129" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="D261" s="129"/>
       <c r="E261" s="130">
         <v>44190</v>
       </c>
       <c r="F261" s="115" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="G261" s="115" t="s">
         <v>1566</v>
       </c>
       <c r="H261" s="129" t="s">
-        <v>1828</v>
+        <v>1811</v>
       </c>
       <c r="I261" s="129" t="s">
-        <v>1827</v>
-      </c>
-      <c r="J261" s="129"/>
+        <v>1810</v>
+      </c>
+      <c r="J261" s="129" t="s">
+        <v>25</v>
+      </c>
       <c r="K261" s="110" t="s">
         <v>91</v>
       </c>
       <c r="L261" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="M261" s="204" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13">
+      <c r="M261" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" hidden="1">
       <c r="A262" s="155" t="s">
         <v>1485</v>
       </c>
@@ -65302,8 +65774,11 @@
       <c r="L262" s="148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="263" spans="1:13">
+      <c r="M262" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" hidden="1">
       <c r="A263" s="155" t="s">
         <v>1485</v>
       </c>
@@ -65340,8 +65815,11 @@
       <c r="L263" s="148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="M263" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" hidden="1">
       <c r="A264" s="114" t="s">
         <v>1582</v>
       </c>
@@ -65378,8 +65856,11 @@
       <c r="L264" s="110" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:13">
+      <c r="M264" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" hidden="1">
       <c r="A265" s="114" t="s">
         <v>1582</v>
       </c>
@@ -65416,8 +65897,11 @@
       <c r="L265" s="110" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="266" spans="1:13">
+      <c r="M265" s="190" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" hidden="1">
       <c r="A266" s="155" t="s">
         <v>1704</v>
       </c>
@@ -65454,8 +65938,11 @@
       <c r="L266" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="267" spans="1:13">
+      <c r="M266" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" hidden="1">
       <c r="A267" s="155" t="s">
         <v>1704</v>
       </c>
@@ -65492,8 +65979,11 @@
       <c r="L267" s="152" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:13">
+      <c r="M267" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" hidden="1">
       <c r="A268" s="155" t="s">
         <v>1707</v>
       </c>
@@ -65530,8 +66020,11 @@
       <c r="L268" s="144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="269" spans="1:13">
+      <c r="M268" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" hidden="1">
       <c r="A269" s="155" t="s">
         <v>1707</v>
       </c>
@@ -65568,8 +66061,11 @@
       <c r="L269" s="144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="270" spans="1:13">
+      <c r="M269" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" hidden="1">
       <c r="A270" s="155" t="s">
         <v>1710</v>
       </c>
@@ -65603,11 +66099,14 @@
       <c r="K270" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="L270" s="209" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13">
+      <c r="L270" s="201" t="s">
+        <v>19</v>
+      </c>
+      <c r="M270" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" hidden="1">
       <c r="A271" s="155" t="s">
         <v>1710</v>
       </c>
@@ -65641,11 +66140,14 @@
       <c r="K271" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="L271" s="209" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13">
+      <c r="L271" s="201" t="s">
+        <v>19</v>
+      </c>
+      <c r="M271" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" hidden="1">
       <c r="A272" s="155" t="s">
         <v>1713</v>
       </c>
@@ -65679,11 +66181,14 @@
       <c r="K272" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="L272" s="209" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12">
+      <c r="L272" s="201" t="s">
+        <v>19</v>
+      </c>
+      <c r="M272" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" hidden="1">
       <c r="A273" s="155" t="s">
         <v>1713</v>
       </c>
@@ -65717,13 +66222,183 @@
       <c r="K273" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="L273" s="209" t="s">
-        <v>19</v>
+      <c r="L273" s="201" t="s">
+        <v>19</v>
+      </c>
+      <c r="M273" s="190" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" hidden="1">
+      <c r="A274" s="207" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B274" s="106" t="s">
+        <v>950</v>
+      </c>
+      <c r="C274" s="106" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D274" s="179">
+        <v>44202</v>
+      </c>
+      <c r="E274" s="179">
+        <v>44205</v>
+      </c>
+      <c r="F274" s="180" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G274" s="180" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H274" s="137" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I274" s="137" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J274" s="208" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K274" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="L274" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M274" s="190" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" hidden="1">
+      <c r="A275" s="207" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B275" s="106" t="s">
+        <v>950</v>
+      </c>
+      <c r="C275" s="137" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D275" s="179">
+        <v>44202</v>
+      </c>
+      <c r="E275" s="179">
+        <v>44205</v>
+      </c>
+      <c r="F275" s="180" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G275" s="180" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H275" s="137" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I275" s="137" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J275" s="208" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K275" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="L275" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M275" s="190" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" hidden="1">
+      <c r="A276" s="207" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B276" s="106" t="s">
+        <v>950</v>
+      </c>
+      <c r="C276" s="137" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D276" s="179">
+        <v>44202</v>
+      </c>
+      <c r="E276" s="179">
+        <v>44205</v>
+      </c>
+      <c r="F276" s="180" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G276" s="180" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H276" s="137" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I276" s="137" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J276" s="208" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K276" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="L276" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M276" s="190" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" hidden="1">
+      <c r="A277" s="207" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B277" s="106" t="s">
+        <v>950</v>
+      </c>
+      <c r="C277" s="137" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D277" s="179">
+        <v>44202</v>
+      </c>
+      <c r="E277" s="179">
+        <v>44205</v>
+      </c>
+      <c r="F277" s="180" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G277" s="180" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H277" s="137" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I277" s="137" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J277" s="208" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K277" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="L277" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M277" s="190" t="s">
+        <v>1850</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M273" xr:uid="{E3AF75F7-42ED-D54D-B3BD-42C499CA237D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M273">
+  <autoFilter ref="A1:L277" xr:uid="{E3AF75F7-42ED-D54D-B3BD-42C499CA237D}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L273">
       <sortCondition ref="A1:A273"/>
     </sortState>
   </autoFilter>
@@ -65995,42 +66670,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDCC41-4C3D-C749-AD9C-1FDC53C8DABE}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>1782</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>1797</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B6" t="s">
         <v>1841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>1842</v>
       </c>
     </row>
   </sheetData>
@@ -66430,10 +67126,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF410C7E-20A9-414B-90C7-927A04650CDE}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66456,6 +67152,11 @@
         <v>1641</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="154" t="s">
+        <v>1847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wrangle/data/interventions/CIHI_closures_openings.xlsx
+++ b/wrangle/data/interventions/CIHI_closures_openings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/CovidTimeline/wrangle/data/interventions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57737BC-FEC1-5A4A-9D68-2AB6CF54C958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32DFBC-1AEB-864F-87EA-A6FA64CA01F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B4121951-06CD-2247-ACCE-15AA6F239984}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orig!$A$1:$L$539</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top30'!$A$1:$M$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top30'!$A$1:$M$305</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8265" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8280" uniqueCount="1886">
   <si>
     <t>Entry ID</t>
   </si>
@@ -34097,21 +34097,6 @@
     <t>https://www.alberta.ca/release.cfm?xID=7716822CAEF42-F51A-C15A-8DA6AA1F5614D257</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">What: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Only one-on-one training is permitted for indoor fitness activities (e.g. fitness in dance studios, training figure skating on ice, one-on-one lessons). Restaurants, cafes and pubs must collect the contact information of one person from the dining party. In-person dining must close by 11 p.m. </t>
-    </r>
-  </si>
-  <si>
     <t>BC209</t>
   </si>
   <si>
@@ -34169,6 +34154,33 @@
   <si>
     <t>As of January 9, 2021, to comply with the 8 p.m. curfew, all commercial enterprises must close their doors not later than 7:30 p.m. Dining rooms are closed, Bars, brasseries, taverns, and casinos
 Closed, Personal and beauty care services closed. Effective Until: February 9, 2021.</t>
+  </si>
+  <si>
+    <t>Six rural regions in the province will be allowed to push the curfew back to 9:30 p.m. and re-open restaurants, gyms, movie theatres and some indoor activities with strict public health rules in place</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/montreal/public-health-restrictions-partial-lifting-quebec-covid-1.5896725</t>
+  </si>
+  <si>
+    <t>QC381</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/enhanced-public-health-measures.aspx#PathForward</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only one-on-one training is permitted for indoor fitness activities (e.g. fitness in dance studios, training figure skating on ice, one-on-one lessons). Children and youth will be allowed to participate in limited school and team sport activities. Restaurants, pubs, bars, lounges and cafes can open for in-person service. Restaurants, cafes and pubs must collect the contact information of one person from the dining party. In-person dining must close by 11 p.m. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -34510,7 +34522,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -35073,6 +35085,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body_text" xfId="4" xr:uid="{6EABE1A5-4DA1-E64F-8051-01C7E4BEAEBC}"/>
@@ -36353,7 +36366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="120" hidden="1">
+    <row r="27" spans="1:12" ht="135" hidden="1">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
@@ -36857,7 +36870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="236" hidden="1">
+    <row r="41" spans="1:12" ht="253" hidden="1">
       <c r="A41" s="4" t="s">
         <v>133</v>
       </c>
@@ -37253,7 +37266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="219" hidden="1">
+    <row r="52" spans="1:12" ht="236" hidden="1">
       <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
@@ -37289,7 +37302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="236" hidden="1">
+    <row r="53" spans="1:12" ht="253" hidden="1">
       <c r="A53" s="4" t="s">
         <v>172</v>
       </c>
@@ -37433,7 +37446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="219" hidden="1">
+    <row r="57" spans="1:12" ht="236" hidden="1">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -38225,7 +38238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="253" hidden="1">
+    <row r="79" spans="1:12" ht="270" hidden="1">
       <c r="A79" s="4" t="s">
         <v>255</v>
       </c>
@@ -38693,7 +38706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="185" hidden="1">
+    <row r="92" spans="1:12" ht="202" hidden="1">
       <c r="A92" s="4" t="s">
         <v>296</v>
       </c>
@@ -38801,7 +38814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="253" hidden="1">
+    <row r="95" spans="1:12" ht="270" hidden="1">
       <c r="A95" s="4" t="s">
         <v>305</v>
       </c>
@@ -39017,7 +39030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="287" hidden="1">
+    <row r="101" spans="1:12" ht="304" hidden="1">
       <c r="A101" s="4" t="s">
         <v>323</v>
       </c>
@@ -39197,7 +39210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="168" hidden="1">
+    <row r="106" spans="1:12" ht="185" hidden="1">
       <c r="A106" s="4" t="s">
         <v>334</v>
       </c>
@@ -39737,7 +39750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="100" hidden="1">
+    <row r="121" spans="1:12" ht="117" hidden="1">
       <c r="A121" s="4" t="s">
         <v>373</v>
       </c>
@@ -40205,7 +40218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="168" hidden="1">
+    <row r="134" spans="1:12" ht="185" hidden="1">
       <c r="A134" s="4" t="s">
         <v>408</v>
       </c>
@@ -40421,7 +40434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="90" hidden="1">
+    <row r="140" spans="1:12" ht="105" hidden="1">
       <c r="A140" s="4" t="s">
         <v>423</v>
       </c>
@@ -41789,7 +41802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="168" hidden="1">
+    <row r="178" spans="1:12" ht="185" hidden="1">
       <c r="A178" s="4" t="s">
         <v>535</v>
       </c>
@@ -41897,7 +41910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="270" hidden="1">
+    <row r="181" spans="1:12" ht="287" hidden="1">
       <c r="A181" s="4" t="s">
         <v>544</v>
       </c>
@@ -42725,7 +42738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="100" hidden="1">
+    <row r="204" spans="1:12" ht="117" hidden="1">
       <c r="A204" s="4" t="s">
         <v>614</v>
       </c>
@@ -42905,7 +42918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="85" hidden="1">
+    <row r="209" spans="1:12" ht="102" hidden="1">
       <c r="A209" s="4" t="s">
         <v>628</v>
       </c>
@@ -43445,7 +43458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="83" hidden="1">
+    <row r="224" spans="1:12" ht="68" hidden="1">
       <c r="A224" s="4" t="s">
         <v>670</v>
       </c>
@@ -44489,7 +44502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="225" hidden="1">
+    <row r="253" spans="1:12" ht="240" hidden="1">
       <c r="A253" s="4" t="s">
         <v>752</v>
       </c>
@@ -44561,7 +44574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="255" hidden="1">
+    <row r="255" spans="1:12" ht="272" hidden="1">
       <c r="A255" s="4" t="s">
         <v>760</v>
       </c>
@@ -44597,7 +44610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="85" hidden="1">
+    <row r="256" spans="1:12" ht="102" hidden="1">
       <c r="A256" s="4" t="s">
         <v>764</v>
       </c>
@@ -45029,7 +45042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="134" hidden="1">
+    <row r="268" spans="1:12" ht="151" hidden="1">
       <c r="A268" s="4" t="s">
         <v>797</v>
       </c>
@@ -45137,7 +45150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="185" hidden="1">
+    <row r="271" spans="1:12" ht="202" hidden="1">
       <c r="A271" s="4" t="s">
         <v>806</v>
       </c>
@@ -45461,7 +45474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="402" hidden="1">
+    <row r="280" spans="1:12" ht="409.6" hidden="1">
       <c r="A280" s="4" t="s">
         <v>828</v>
       </c>
@@ -45533,7 +45546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="402" hidden="1">
+    <row r="282" spans="1:12" ht="409.6" hidden="1">
       <c r="A282" s="4" t="s">
         <v>835</v>
       </c>
@@ -45569,7 +45582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="168" hidden="1">
+    <row r="283" spans="1:12" ht="185" hidden="1">
       <c r="A283" s="4" t="s">
         <v>837</v>
       </c>
@@ -45641,7 +45654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="402" hidden="1">
+    <row r="285" spans="1:12" ht="409.6" hidden="1">
       <c r="A285" s="4" t="s">
         <v>843</v>
       </c>
@@ -46325,7 +46338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="168" hidden="1">
+    <row r="304" spans="1:12" ht="185" hidden="1">
       <c r="A304" s="4" t="s">
         <v>901</v>
       </c>
@@ -46361,7 +46374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="134" hidden="1">
+    <row r="305" spans="1:12" ht="151" hidden="1">
       <c r="A305" s="4" t="s">
         <v>903</v>
       </c>
@@ -47009,7 +47022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="85" hidden="1">
+    <row r="323" spans="1:12" ht="90" hidden="1">
       <c r="A323" s="4" t="s">
         <v>960</v>
       </c>
@@ -47405,7 +47418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="83" hidden="1">
+    <row r="334" spans="1:12" ht="90" hidden="1">
       <c r="A334" s="4" t="s">
         <v>992</v>
       </c>
@@ -47549,7 +47562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="83" hidden="1">
+    <row r="338" spans="1:12" ht="90" hidden="1">
       <c r="A338" s="4" t="s">
         <v>1002</v>
       </c>
@@ -48377,7 +48390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="90" hidden="1">
+    <row r="361" spans="1:12" ht="105" hidden="1">
       <c r="A361" s="30" t="s">
         <v>1068</v>
       </c>
@@ -48449,7 +48462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="134" hidden="1">
+    <row r="363" spans="1:12" ht="151" hidden="1">
       <c r="A363" s="30" t="s">
         <v>1074</v>
       </c>
@@ -48665,7 +48678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="83" hidden="1">
+    <row r="369" spans="1:12" ht="90" hidden="1">
       <c r="A369" s="30" t="s">
         <v>1092</v>
       </c>
@@ -48773,7 +48786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="134" hidden="1">
+    <row r="372" spans="1:12" ht="151" hidden="1">
       <c r="A372" s="30" t="s">
         <v>1100</v>
       </c>
@@ -48845,7 +48858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="100" hidden="1">
+    <row r="374" spans="1:12" ht="117" hidden="1">
       <c r="A374" s="30" t="s">
         <v>1106</v>
       </c>
@@ -48881,7 +48894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="134" hidden="1">
+    <row r="375" spans="1:12" ht="151" hidden="1">
       <c r="A375" s="30" t="s">
         <v>1109</v>
       </c>
@@ -49025,7 +49038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="135" hidden="1">
+    <row r="379" spans="1:12" ht="151" hidden="1">
       <c r="A379" s="30" t="s">
         <v>1121</v>
       </c>
@@ -49097,7 +49110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="386" hidden="1">
+    <row r="381" spans="1:12" ht="402" hidden="1">
       <c r="A381" s="30" t="s">
         <v>1126</v>
       </c>
@@ -49133,7 +49146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="151" hidden="1">
+    <row r="382" spans="1:12" ht="168" hidden="1">
       <c r="A382" s="30" t="s">
         <v>1129</v>
       </c>
@@ -49205,7 +49218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="270" hidden="1">
+    <row r="384" spans="1:12" ht="304" hidden="1">
       <c r="A384" s="30" t="s">
         <v>1135</v>
       </c>
@@ -49277,7 +49290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="236" hidden="1">
+    <row r="386" spans="1:12" ht="253" hidden="1">
       <c r="A386" s="30" t="s">
         <v>1141</v>
       </c>
@@ -49493,7 +49506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="151" hidden="1">
+    <row r="392" spans="1:12" ht="185" hidden="1">
       <c r="A392" s="30" t="s">
         <v>1158</v>
       </c>
@@ -51257,7 +51270,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="135" hidden="1">
+    <row r="441" spans="1:12" ht="150" hidden="1">
       <c r="A441" s="61" t="s">
         <v>1300</v>
       </c>
@@ -51473,7 +51486,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="90" hidden="1">
+    <row r="447" spans="1:12" ht="105" hidden="1">
       <c r="A447" s="61" t="s">
         <v>1322</v>
       </c>
@@ -52805,7 +52818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="135" hidden="1">
+    <row r="484" spans="1:12" ht="150" hidden="1">
       <c r="A484" s="61" t="s">
         <v>1433</v>
       </c>
@@ -55365,10 +55378,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB1EB7-EFBB-BE4C-BF33-3C1CB63F305E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="H277" sqref="H277"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E305" sqref="A1:M305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -66525,7 +66538,7 @@
         <v>1566</v>
       </c>
       <c r="H274" s="129" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I274" s="129" t="s">
         <v>1852</v>
@@ -66566,7 +66579,7 @@
         <v>1566</v>
       </c>
       <c r="H275" s="129" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I275" s="129" t="s">
         <v>1852</v>
@@ -66607,7 +66620,7 @@
         <v>1566</v>
       </c>
       <c r="H276" s="129" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I276" s="129" t="s">
         <v>1852</v>
@@ -66648,7 +66661,7 @@
         <v>1566</v>
       </c>
       <c r="H277" s="129" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="I277" s="129" t="s">
         <v>1852</v>
@@ -67407,7 +67420,7 @@
       </c>
       <c r="G296" s="129"/>
       <c r="H296" s="129" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="I296" s="129" t="s">
         <v>1134</v>
@@ -67547,14 +67560,18 @@
       <c r="F300" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="G300" s="129"/>
+      <c r="G300" s="129" t="s">
+        <v>1591</v>
+      </c>
       <c r="H300" s="187" t="s">
-        <v>1875</v>
+        <v>1885</v>
       </c>
       <c r="I300" s="129" t="s">
         <v>1874</v>
       </c>
-      <c r="J300" s="129"/>
+      <c r="J300" s="129" t="s">
+        <v>1884</v>
+      </c>
       <c r="K300" s="129" t="s">
         <v>18</v>
       </c>
@@ -67582,14 +67599,18 @@
       <c r="F301" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="G301" s="129"/>
+      <c r="G301" s="129" t="s">
+        <v>1591</v>
+      </c>
       <c r="H301" s="187" t="s">
-        <v>1875</v>
+        <v>1885</v>
       </c>
       <c r="I301" s="129" t="s">
         <v>1874</v>
       </c>
-      <c r="J301" s="129"/>
+      <c r="J301" s="129" t="s">
+        <v>1884</v>
+      </c>
       <c r="K301" s="129" t="s">
         <v>18</v>
       </c>
@@ -67617,14 +67638,18 @@
       <c r="F302" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="G302" s="129"/>
+      <c r="G302" s="129" t="s">
+        <v>1591</v>
+      </c>
       <c r="H302" s="187" t="s">
-        <v>1875</v>
+        <v>1885</v>
       </c>
       <c r="I302" s="129" t="s">
         <v>1874</v>
       </c>
-      <c r="J302" s="129"/>
+      <c r="J302" s="129" t="s">
+        <v>1884</v>
+      </c>
       <c r="K302" s="129" t="s">
         <v>18</v>
       </c>
@@ -67637,7 +67662,7 @@
     </row>
     <row r="303" spans="1:13" hidden="1">
       <c r="A303" s="187" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B303" s="129" t="s">
         <v>143</v>
@@ -67660,7 +67685,7 @@
     </row>
     <row r="304" spans="1:13" hidden="1">
       <c r="A304" s="187" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B304" s="110" t="s">
         <v>260</v>
@@ -67679,10 +67704,10 @@
       </c>
       <c r="G304" s="129"/>
       <c r="H304" s="129" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="I304" s="129" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J304" s="129"/>
       <c r="K304" s="129" t="s">
@@ -67695,8 +67720,45 @@
         <v>1847</v>
       </c>
     </row>
+    <row r="305" spans="1:13">
+      <c r="A305" s="212" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B305" s="106" t="s">
+        <v>950</v>
+      </c>
+      <c r="C305" s="137" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D305" s="178">
+        <v>44232</v>
+      </c>
+      <c r="E305" s="178">
+        <v>44235</v>
+      </c>
+      <c r="F305" s="179" t="s">
+        <v>59</v>
+      </c>
+      <c r="G305" s="137"/>
+      <c r="H305" s="137" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I305" s="137" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J305" s="137"/>
+      <c r="K305" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="L305" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M305" s="189" t="s">
+        <v>1846</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M304" xr:uid="{2E928349-A5AA-9B41-9E5A-C956A9EBD262}">
+  <autoFilter ref="A1:M305" xr:uid="{2E928349-A5AA-9B41-9E5A-C956A9EBD262}">
     <filterColumn colId="1">
       <filters>
         <filter val="Que."/>

--- a/wrangle/data/interventions/CIHI_closures_openings.xlsx
+++ b/wrangle/data/interventions/CIHI_closures_openings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/CovidTimeline/wrangle/data/interventions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32DFBC-1AEB-864F-87EA-A6FA64CA01F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D73F34-9588-2740-8612-96FE4F07A81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B4121951-06CD-2247-ACCE-15AA6F239984}"/>
+    <workbookView xWindow="4020" yWindow="1100" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B4121951-06CD-2247-ACCE-15AA6F239984}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orig!$A$1:$L$539</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top30'!$A$1:$M$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top30'!$A$1:$M$315</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8280" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8382" uniqueCount="1894">
   <si>
     <t>Entry ID</t>
   </si>
@@ -34181,6 +34181,31 @@
       </rPr>
       <t xml:space="preserve">Only one-on-one training is permitted for indoor fitness activities (e.g. fitness in dance studios, training figure skating on ice, one-on-one lessons). Children and youth will be allowed to participate in limited school and team sport activities. Restaurants, pubs, bars, lounges and cafes can open for in-person service. Restaurants, cafes and pubs must collect the contact information of one person from the dining party. In-person dining must close by 11 p.m. </t>
     </r>
+  </si>
+  <si>
+    <t>ON267</t>
+  </si>
+  <si>
+    <t>https://globalnews.ca/news/7627151/ontario-coronavirus-phased-reopening-covid-19/</t>
+  </si>
+  <si>
+    <t>https://news.ontario.ca/en/backgrounder/60260/in-person-shopping-at-retail-stores-permitted-with-public-health-and-safety-requirements-in-place</t>
+  </si>
+  <si>
+    <t>In person shopping permitted for retail sales, with capacity limits;75 per cent capacity limit for supermarkets and other stores that primarily sell groceries, convenience stores, and pharmacies; and
+50 per cent capacity limit for all other retail businesses that engage in retail sales to the public, including big box stores;</t>
+  </si>
+  <si>
+    <t>ON268</t>
+  </si>
+  <si>
+    <t>https://news.ontario.ca/en/release/60339/ontario-returning-27-public-health-regions-to-strengthened-covid-19-response-framework</t>
+  </si>
+  <si>
+    <t>Level 3 (Orange)</t>
+  </si>
+  <si>
+    <t>Restaurants &amp; eating places, Activities</t>
   </si>
 </sst>
 </file>
@@ -34192,7 +34217,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34332,6 +34357,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -34371,7 +34403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -34509,6 +34541,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -34522,7 +34567,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -35086,6 +35131,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body_text" xfId="4" xr:uid="{6EABE1A5-4DA1-E64F-8051-01C7E4BEAEBC}"/>
@@ -36366,7 +36421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="135" hidden="1">
+    <row r="27" spans="1:12" ht="120" hidden="1">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
@@ -36870,7 +36925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="253" hidden="1">
+    <row r="41" spans="1:12" ht="236" hidden="1">
       <c r="A41" s="4" t="s">
         <v>133</v>
       </c>
@@ -37266,7 +37321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="236" hidden="1">
+    <row r="52" spans="1:12" ht="219" hidden="1">
       <c r="A52" s="4" t="s">
         <v>169</v>
       </c>
@@ -37302,7 +37357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="253" hidden="1">
+    <row r="53" spans="1:12" ht="236" hidden="1">
       <c r="A53" s="4" t="s">
         <v>172</v>
       </c>
@@ -37446,7 +37501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="236" hidden="1">
+    <row r="57" spans="1:12" ht="219" hidden="1">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -38238,7 +38293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="270" hidden="1">
+    <row r="79" spans="1:12" ht="253" hidden="1">
       <c r="A79" s="4" t="s">
         <v>255</v>
       </c>
@@ -38706,7 +38761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="202" hidden="1">
+    <row r="92" spans="1:12" ht="185" hidden="1">
       <c r="A92" s="4" t="s">
         <v>296</v>
       </c>
@@ -38814,7 +38869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="270" hidden="1">
+    <row r="95" spans="1:12" ht="253" hidden="1">
       <c r="A95" s="4" t="s">
         <v>305</v>
       </c>
@@ -39030,7 +39085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="304" hidden="1">
+    <row r="101" spans="1:12" ht="287" hidden="1">
       <c r="A101" s="4" t="s">
         <v>323</v>
       </c>
@@ -39210,7 +39265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="185" hidden="1">
+    <row r="106" spans="1:12" ht="168" hidden="1">
       <c r="A106" s="4" t="s">
         <v>334</v>
       </c>
@@ -39750,7 +39805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="117" hidden="1">
+    <row r="121" spans="1:12" ht="100" hidden="1">
       <c r="A121" s="4" t="s">
         <v>373</v>
       </c>
@@ -40218,7 +40273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="185" hidden="1">
+    <row r="134" spans="1:12" ht="168" hidden="1">
       <c r="A134" s="4" t="s">
         <v>408</v>
       </c>
@@ -40434,7 +40489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="105" hidden="1">
+    <row r="140" spans="1:12" ht="90" hidden="1">
       <c r="A140" s="4" t="s">
         <v>423</v>
       </c>
@@ -41802,7 +41857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="185" hidden="1">
+    <row r="178" spans="1:12" ht="168" hidden="1">
       <c r="A178" s="4" t="s">
         <v>535</v>
       </c>
@@ -41910,7 +41965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="287" hidden="1">
+    <row r="181" spans="1:12" ht="270" hidden="1">
       <c r="A181" s="4" t="s">
         <v>544</v>
       </c>
@@ -42738,7 +42793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="117" hidden="1">
+    <row r="204" spans="1:12" ht="100" hidden="1">
       <c r="A204" s="4" t="s">
         <v>614</v>
       </c>
@@ -42918,7 +42973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="102" hidden="1">
+    <row r="209" spans="1:12" ht="85" hidden="1">
       <c r="A209" s="4" t="s">
         <v>628</v>
       </c>
@@ -43458,7 +43513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="68" hidden="1">
+    <row r="224" spans="1:12" ht="83" hidden="1">
       <c r="A224" s="4" t="s">
         <v>670</v>
       </c>
@@ -44502,7 +44557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="240" hidden="1">
+    <row r="253" spans="1:12" ht="225" hidden="1">
       <c r="A253" s="4" t="s">
         <v>752</v>
       </c>
@@ -44574,7 +44629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="272" hidden="1">
+    <row r="255" spans="1:12" ht="255" hidden="1">
       <c r="A255" s="4" t="s">
         <v>760</v>
       </c>
@@ -44610,7 +44665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="102" hidden="1">
+    <row r="256" spans="1:12" ht="85" hidden="1">
       <c r="A256" s="4" t="s">
         <v>764</v>
       </c>
@@ -45042,7 +45097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="151" hidden="1">
+    <row r="268" spans="1:12" ht="134" hidden="1">
       <c r="A268" s="4" t="s">
         <v>797</v>
       </c>
@@ -45150,7 +45205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="202" hidden="1">
+    <row r="271" spans="1:12" ht="185" hidden="1">
       <c r="A271" s="4" t="s">
         <v>806</v>
       </c>
@@ -45474,7 +45529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="409.6" hidden="1">
+    <row r="280" spans="1:12" ht="402" hidden="1">
       <c r="A280" s="4" t="s">
         <v>828</v>
       </c>
@@ -45546,7 +45601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="409.6" hidden="1">
+    <row r="282" spans="1:12" ht="402" hidden="1">
       <c r="A282" s="4" t="s">
         <v>835</v>
       </c>
@@ -45582,7 +45637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="185" hidden="1">
+    <row r="283" spans="1:12" ht="168" hidden="1">
       <c r="A283" s="4" t="s">
         <v>837</v>
       </c>
@@ -45654,7 +45709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="409.6" hidden="1">
+    <row r="285" spans="1:12" ht="402" hidden="1">
       <c r="A285" s="4" t="s">
         <v>843</v>
       </c>
@@ -46338,7 +46393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="185" hidden="1">
+    <row r="304" spans="1:12" ht="168" hidden="1">
       <c r="A304" s="4" t="s">
         <v>901</v>
       </c>
@@ -46374,7 +46429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="151" hidden="1">
+    <row r="305" spans="1:12" ht="134" hidden="1">
       <c r="A305" s="4" t="s">
         <v>903</v>
       </c>
@@ -47022,7 +47077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="90" hidden="1">
+    <row r="323" spans="1:12" ht="85" hidden="1">
       <c r="A323" s="4" t="s">
         <v>960</v>
       </c>
@@ -47418,7 +47473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="90" hidden="1">
+    <row r="334" spans="1:12" ht="83" hidden="1">
       <c r="A334" s="4" t="s">
         <v>992</v>
       </c>
@@ -47562,7 +47617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="90" hidden="1">
+    <row r="338" spans="1:12" ht="83" hidden="1">
       <c r="A338" s="4" t="s">
         <v>1002</v>
       </c>
@@ -48390,7 +48445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="105" hidden="1">
+    <row r="361" spans="1:12" ht="90" hidden="1">
       <c r="A361" s="30" t="s">
         <v>1068</v>
       </c>
@@ -48462,7 +48517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="151" hidden="1">
+    <row r="363" spans="1:12" ht="134" hidden="1">
       <c r="A363" s="30" t="s">
         <v>1074</v>
       </c>
@@ -48678,7 +48733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="90" hidden="1">
+    <row r="369" spans="1:12" ht="83" hidden="1">
       <c r="A369" s="30" t="s">
         <v>1092</v>
       </c>
@@ -48786,7 +48841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="151" hidden="1">
+    <row r="372" spans="1:12" ht="134" hidden="1">
       <c r="A372" s="30" t="s">
         <v>1100</v>
       </c>
@@ -48858,7 +48913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="117" hidden="1">
+    <row r="374" spans="1:12" ht="100" hidden="1">
       <c r="A374" s="30" t="s">
         <v>1106</v>
       </c>
@@ -48894,7 +48949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="151" hidden="1">
+    <row r="375" spans="1:12" ht="134" hidden="1">
       <c r="A375" s="30" t="s">
         <v>1109</v>
       </c>
@@ -49038,7 +49093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="151" hidden="1">
+    <row r="379" spans="1:12" ht="135" hidden="1">
       <c r="A379" s="30" t="s">
         <v>1121</v>
       </c>
@@ -49110,7 +49165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="402" hidden="1">
+    <row r="381" spans="1:12" ht="386" hidden="1">
       <c r="A381" s="30" t="s">
         <v>1126</v>
       </c>
@@ -49146,7 +49201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="168" hidden="1">
+    <row r="382" spans="1:12" ht="151" hidden="1">
       <c r="A382" s="30" t="s">
         <v>1129</v>
       </c>
@@ -49218,7 +49273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="304" hidden="1">
+    <row r="384" spans="1:12" ht="270" hidden="1">
       <c r="A384" s="30" t="s">
         <v>1135</v>
       </c>
@@ -49290,7 +49345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="253" hidden="1">
+    <row r="386" spans="1:12" ht="236" hidden="1">
       <c r="A386" s="30" t="s">
         <v>1141</v>
       </c>
@@ -49506,7 +49561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="185" hidden="1">
+    <row r="392" spans="1:12" ht="151" hidden="1">
       <c r="A392" s="30" t="s">
         <v>1158</v>
       </c>
@@ -51270,7 +51325,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="150" hidden="1">
+    <row r="441" spans="1:12" ht="135" hidden="1">
       <c r="A441" s="61" t="s">
         <v>1300</v>
       </c>
@@ -51486,7 +51541,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="105" hidden="1">
+    <row r="447" spans="1:12" ht="90" hidden="1">
       <c r="A447" s="61" t="s">
         <v>1322</v>
       </c>
@@ -52818,7 +52873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="150" hidden="1">
+    <row r="484" spans="1:12" ht="135" hidden="1">
       <c r="A484" s="61" t="s">
         <v>1433</v>
       </c>
@@ -55378,10 +55433,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB1EB7-EFBB-BE4C-BF33-3C1CB63F305E}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M305"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E305" sqref="A1:M305"/>
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -58599,7 +58654,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80" s="155" t="s">
         <v>1685</v>
       </c>
@@ -58640,7 +58695,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" s="155" t="s">
         <v>1685</v>
       </c>
@@ -58681,7 +58736,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="186" customFormat="1" hidden="1">
+    <row r="82" spans="1:13" s="186" customFormat="1">
       <c r="A82" s="155" t="s">
         <v>1689</v>
       </c>
@@ -58722,7 +58777,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="186" customFormat="1" hidden="1">
+    <row r="83" spans="1:13" s="186" customFormat="1">
       <c r="A83" s="155" t="s">
         <v>1689</v>
       </c>
@@ -58763,7 +58818,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" s="155" t="s">
         <v>1693</v>
       </c>
@@ -58804,7 +58859,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85" s="155" t="s">
         <v>1693</v>
       </c>
@@ -58845,7 +58900,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="60" hidden="1">
+    <row r="86" spans="1:13" ht="60">
       <c r="A86" s="155" t="s">
         <v>1696</v>
       </c>
@@ -58886,7 +58941,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" s="155" t="s">
         <v>1696</v>
       </c>
@@ -58927,7 +58982,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" s="155" t="s">
         <v>1790</v>
       </c>
@@ -58966,7 +59021,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" s="155" t="s">
         <v>1803</v>
       </c>
@@ -59005,7 +59060,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90" s="197" t="s">
         <v>1794</v>
       </c>
@@ -59044,7 +59099,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91" s="197" t="s">
         <v>1804</v>
       </c>
@@ -63245,7 +63300,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="177" t="s">
         <v>1569</v>
       </c>
@@ -63286,7 +63341,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="176" t="s">
         <v>1572</v>
       </c>
@@ -63327,7 +63382,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="180" t="s">
         <v>1576</v>
       </c>
@@ -63368,7 +63423,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="155" t="s">
         <v>1714</v>
       </c>
@@ -63409,7 +63464,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="155" t="s">
         <v>1714</v>
       </c>
@@ -63450,7 +63505,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="155" t="s">
         <v>1714</v>
       </c>
@@ -63491,7 +63546,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" s="155" t="s">
         <v>1714</v>
       </c>
@@ -63532,7 +63587,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="155" t="s">
         <v>1714</v>
       </c>
@@ -63573,7 +63628,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" s="155" t="s">
         <v>1718</v>
       </c>
@@ -63614,7 +63669,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="155" t="s">
         <v>1718</v>
       </c>
@@ -63655,7 +63710,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="155" t="s">
         <v>1718</v>
       </c>
@@ -63696,7 +63751,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="155" t="s">
         <v>1718</v>
       </c>
@@ -63737,7 +63792,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="155" t="s">
         <v>1718</v>
       </c>
@@ -63778,7 +63833,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63819,7 +63874,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63860,7 +63915,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63901,7 +63956,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63942,7 +63997,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="155" t="s">
         <v>1720</v>
       </c>
@@ -63983,7 +64038,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="155" t="s">
         <v>1758</v>
       </c>
@@ -64024,7 +64079,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="155" t="s">
         <v>1758</v>
       </c>
@@ -64065,7 +64120,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="155" t="s">
         <v>1758</v>
       </c>
@@ -64106,7 +64161,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="155" t="s">
         <v>1758</v>
       </c>
@@ -64147,7 +64202,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="155" t="s">
         <v>1758</v>
       </c>
@@ -64188,7 +64243,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="155" t="s">
         <v>1722</v>
       </c>
@@ -64229,7 +64284,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="155" t="s">
         <v>1722</v>
       </c>
@@ -64270,7 +64325,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="155" t="s">
         <v>1722</v>
       </c>
@@ -64311,7 +64366,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" s="155" t="s">
         <v>1722</v>
       </c>
@@ -64352,7 +64407,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" s="155" t="s">
         <v>1722</v>
       </c>
@@ -64393,7 +64448,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="75">
+    <row r="222" spans="1:13" ht="75" hidden="1">
       <c r="A222" s="155" t="s">
         <v>1725</v>
       </c>
@@ -64434,7 +64489,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="155" t="s">
         <v>1725</v>
       </c>
@@ -64475,7 +64530,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="155" t="s">
         <v>1725</v>
       </c>
@@ -64516,7 +64571,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="155" t="s">
         <v>1725</v>
       </c>
@@ -64557,7 +64612,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="155" t="s">
         <v>1725</v>
       </c>
@@ -64598,7 +64653,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="155" t="s">
         <v>1729</v>
       </c>
@@ -64639,7 +64694,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="155" t="s">
         <v>1729</v>
       </c>
@@ -64680,7 +64735,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="155" t="s">
         <v>1760</v>
       </c>
@@ -64721,7 +64776,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="155" t="s">
         <v>1760</v>
       </c>
@@ -64762,7 +64817,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" s="155" t="s">
         <v>1760</v>
       </c>
@@ -64803,7 +64858,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="155" t="s">
         <v>1760</v>
       </c>
@@ -64844,7 +64899,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="155" t="s">
         <v>1760</v>
       </c>
@@ -64885,7 +64940,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="155" t="s">
         <v>1732</v>
       </c>
@@ -64926,7 +64981,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" s="155" t="s">
         <v>1732</v>
       </c>
@@ -64967,7 +65022,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" s="155" t="s">
         <v>1732</v>
       </c>
@@ -65008,7 +65063,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="155" t="s">
         <v>1732</v>
       </c>
@@ -65049,7 +65104,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="155" t="s">
         <v>1732</v>
       </c>
@@ -65090,7 +65145,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" s="155" t="s">
         <v>1736</v>
       </c>
@@ -65131,7 +65186,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="155" t="s">
         <v>1736</v>
       </c>
@@ -65172,7 +65227,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="155" t="s">
         <v>1736</v>
       </c>
@@ -65213,7 +65268,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="155" t="s">
         <v>1736</v>
       </c>
@@ -65254,7 +65309,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="155" t="s">
         <v>1736</v>
       </c>
@@ -65295,7 +65350,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="155" t="s">
         <v>1739</v>
       </c>
@@ -65336,7 +65391,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" s="155" t="s">
         <v>1739</v>
       </c>
@@ -65377,7 +65432,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" s="155" t="s">
         <v>1739</v>
       </c>
@@ -65418,7 +65473,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="155" t="s">
         <v>1739</v>
       </c>
@@ -65459,7 +65514,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="155" t="s">
         <v>1739</v>
       </c>
@@ -65500,7 +65555,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="155" t="s">
         <v>1742</v>
       </c>
@@ -65541,7 +65596,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" s="155" t="s">
         <v>1742</v>
       </c>
@@ -65582,7 +65637,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" s="155" t="s">
         <v>1742</v>
       </c>
@@ -65623,7 +65678,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" s="155" t="s">
         <v>1742</v>
       </c>
@@ -65664,7 +65719,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" s="155" t="s">
         <v>1742</v>
       </c>
@@ -65705,7 +65760,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" s="114" t="s">
         <v>1767</v>
       </c>
@@ -65746,7 +65801,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" s="114" t="s">
         <v>1810</v>
       </c>
@@ -65787,7 +65842,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" s="114" t="s">
         <v>1813</v>
       </c>
@@ -65828,7 +65883,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" hidden="1">
       <c r="A257" s="114" t="s">
         <v>1813</v>
       </c>
@@ -65867,7 +65922,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" hidden="1">
       <c r="A258" s="187" t="s">
         <v>1814</v>
       </c>
@@ -65906,7 +65961,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" hidden="1">
       <c r="A259" s="187" t="s">
         <v>1814</v>
       </c>
@@ -65945,7 +66000,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" hidden="1">
       <c r="A260" s="187" t="s">
         <v>1814</v>
       </c>
@@ -65984,7 +66039,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" hidden="1">
       <c r="A261" s="187" t="s">
         <v>1814</v>
       </c>
@@ -66515,7 +66570,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" hidden="1">
       <c r="A274" s="187" t="s">
         <v>1843</v>
       </c>
@@ -66556,7 +66611,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" hidden="1">
       <c r="A275" s="187" t="s">
         <v>1843</v>
       </c>
@@ -66597,7 +66652,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" hidden="1">
       <c r="A276" s="187" t="s">
         <v>1843</v>
       </c>
@@ -66638,7 +66693,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" hidden="1">
       <c r="A277" s="187" t="s">
         <v>1843</v>
       </c>
@@ -66699,7 +66754,7 @@
         <v>1780</v>
       </c>
       <c r="G278" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H278" s="129" t="s">
         <v>1850</v>
@@ -66740,7 +66795,7 @@
         <v>1780</v>
       </c>
       <c r="G279" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H279" s="129" t="s">
         <v>1850</v>
@@ -66781,7 +66836,7 @@
         <v>1780</v>
       </c>
       <c r="G280" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H280" s="129" t="s">
         <v>1850</v>
@@ -66822,7 +66877,7 @@
         <v>1780</v>
       </c>
       <c r="G281" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H281" s="129" t="s">
         <v>1850</v>
@@ -66863,7 +66918,7 @@
         <v>1780</v>
       </c>
       <c r="G282" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H282" s="129" t="s">
         <v>1850</v>
@@ -66904,7 +66959,7 @@
         <v>1780</v>
       </c>
       <c r="G283" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H283" s="129" t="s">
         <v>1850</v>
@@ -66945,7 +67000,7 @@
         <v>1780</v>
       </c>
       <c r="G284" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H284" s="129" t="s">
         <v>1850</v>
@@ -66986,7 +67041,7 @@
         <v>1780</v>
       </c>
       <c r="G285" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H285" s="129" t="s">
         <v>1850</v>
@@ -67027,7 +67082,7 @@
         <v>1780</v>
       </c>
       <c r="G286" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H286" s="129" t="s">
         <v>1850</v>
@@ -67068,7 +67123,7 @@
         <v>1780</v>
       </c>
       <c r="G287" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H287" s="129" t="s">
         <v>1850</v>
@@ -67109,7 +67164,7 @@
         <v>1780</v>
       </c>
       <c r="G288" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H288" s="129" t="s">
         <v>1850</v>
@@ -67150,7 +67205,7 @@
         <v>1780</v>
       </c>
       <c r="G289" s="115" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="H289" s="129" t="s">
         <v>1850</v>
@@ -67204,7 +67259,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1">
+    <row r="291" spans="1:13">
       <c r="A291" s="187" t="s">
         <v>1860</v>
       </c>
@@ -67245,7 +67300,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1">
+    <row r="292" spans="1:13">
       <c r="A292" s="187" t="s">
         <v>1860</v>
       </c>
@@ -67720,7 +67775,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" s="212" t="s">
         <v>1883</v>
       </c>
@@ -67739,7 +67794,9 @@
       <c r="F305" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="G305" s="137"/>
+      <c r="G305" s="137" t="s">
+        <v>1892</v>
+      </c>
       <c r="H305" s="137" t="s">
         <v>1881</v>
       </c>
@@ -67757,11 +67814,394 @@
         <v>1846</v>
       </c>
     </row>
+    <row r="306" spans="1:13" ht="85" hidden="1">
+      <c r="A306" s="188" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B306" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C306" s="206" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D306" s="213">
+        <v>44235</v>
+      </c>
+      <c r="E306" s="213">
+        <v>44237</v>
+      </c>
+      <c r="F306" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G306" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H306" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I306" s="154" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J306" s="154" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K306" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L306" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M306" s="189" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="85" hidden="1">
+      <c r="A307" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B307" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C307" s="206" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D307" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E307" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F307" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G307" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H307" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I307" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K307" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L307" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M307" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="85" hidden="1">
+      <c r="A308" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B308" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C308" s="206" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D308" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E308" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F308" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G308" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H308" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I308" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K308" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L308" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M308" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="85" hidden="1">
+      <c r="A309" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B309" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C309" s="206" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D309" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E309" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F309" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G309" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H309" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I309" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K309" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L309" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M309" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="85" hidden="1">
+      <c r="A310" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B310" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C310" s="206" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D310" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E310" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F310" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G310" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H310" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I310" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K310" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L310" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M310" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="85" hidden="1">
+      <c r="A311" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B311" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C311" s="206" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D311" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E311" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F311" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G311" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H311" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I311" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K311" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L311" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M311" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="85" hidden="1">
+      <c r="A312" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B312" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C312" s="206" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D312" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E312" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F312" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G312" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H312" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I312" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K312" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L312" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M312" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="85" hidden="1">
+      <c r="A313" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B313" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C313" s="206" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D313" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E313" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F313" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G313" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H313" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I313" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K313" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L313" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M313" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="85" hidden="1">
+      <c r="A314" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B314" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C314" s="206" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D314" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E314" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F314" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G314" s="214" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H314" s="215" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I314" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K314" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L314" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M314" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" hidden="1">
+      <c r="A315" s="188" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B315" s="206" t="s">
+        <v>712</v>
+      </c>
+      <c r="C315" s="206" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D315" s="213">
+        <v>44239</v>
+      </c>
+      <c r="E315" s="213">
+        <v>44243</v>
+      </c>
+      <c r="F315" s="214" t="s">
+        <v>59</v>
+      </c>
+      <c r="G315" s="214" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H315" s="216" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I315" s="154" t="s">
+        <v>1891</v>
+      </c>
+      <c r="K315" s="206" t="s">
+        <v>91</v>
+      </c>
+      <c r="L315" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="M315" s="189" t="s">
+        <v>1847</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M305" xr:uid="{2E928349-A5AA-9B41-9E5A-C956A9EBD262}">
+  <autoFilter ref="A1:M315" xr:uid="{2E928349-A5AA-9B41-9E5A-C956A9EBD262}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Que."/>
+        <filter val="N.B."/>
       </filters>
     </filterColumn>
   </autoFilter>
